--- a/grupos/4AEV - Estadisticos 2020.xlsx
+++ b/grupos/4AEV - Estadisticos 2020.xlsx
@@ -3154,6 +3154,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
     <col min="2" max="6" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6090,7 +6091,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="4" width="50.7109375" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
+    <col min="2" max="4" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -6616,6 +6618,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
     <col min="2" max="6" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>

--- a/grupos/4AEV - Estadisticos 2020.xlsx
+++ b/grupos/4AEV - Estadisticos 2020.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="135">
   <si>
     <t>Materia</t>
   </si>
@@ -170,16 +170,16 @@
     <t>Por_Blancos</t>
   </si>
   <si>
+    <t>Silva Villegas Mario</t>
+  </si>
+  <si>
+    <t>Zarate Amezcua Eladio Jorge</t>
+  </si>
+  <si>
     <t>Polanco Domínguez Rosa María</t>
   </si>
   <si>
     <t>Camarillo Aburto Raymundo</t>
-  </si>
-  <si>
-    <t>Silva Villegas Mario</t>
-  </si>
-  <si>
-    <t>Zarate Amezcua Eladio Jorge</t>
   </si>
   <si>
     <t>Ortega Valle Manuel</t>
@@ -900,7 +900,7 @@
         <v>-1</v>
       </c>
       <c r="C4">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D4">
         <v>-1</v>
@@ -968,7 +968,7 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D5">
         <v>-1</v>
@@ -986,7 +986,7 @@
         <v>8</v>
       </c>
       <c r="I5">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J5">
         <v>-1</v>
@@ -1033,13 +1033,13 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D6">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="E6">
         <v>7</v>
@@ -1054,7 +1054,7 @@
         <v>9</v>
       </c>
       <c r="I6">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J6">
         <v>-1</v>
@@ -1104,7 +1104,7 @@
         <v>-1</v>
       </c>
       <c r="C7">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D7">
         <v>-1</v>
@@ -1172,7 +1172,7 @@
         <v>-1</v>
       </c>
       <c r="C8">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D8">
         <v>-1</v>
@@ -1240,7 +1240,7 @@
         <v>-1</v>
       </c>
       <c r="C9">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D9">
         <v>-1</v>
@@ -1308,7 +1308,7 @@
         <v>-1</v>
       </c>
       <c r="C10">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D10">
         <v>-1</v>
@@ -1379,7 +1379,7 @@
         <v>9</v>
       </c>
       <c r="D11">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="E11">
         <v>8</v>
@@ -1394,13 +1394,13 @@
         <v>8</v>
       </c>
       <c r="I11">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J11">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="K11">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L11">
         <v>-1</v>
@@ -1441,10 +1441,10 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C12">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D12">
         <v>-1</v>
@@ -1462,7 +1462,7 @@
         <v>-1</v>
       </c>
       <c r="I12">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J12">
         <v>-1</v>
@@ -1515,7 +1515,7 @@
         <v>7</v>
       </c>
       <c r="D13">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="E13">
         <v>-1</v>
@@ -1530,10 +1530,10 @@
         <v>8</v>
       </c>
       <c r="I13">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J13">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K13">
         <v>-1</v>
@@ -1598,16 +1598,16 @@
         <v>-1</v>
       </c>
       <c r="I14">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J14">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="K14">
         <v>-1</v>
       </c>
       <c r="L14">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M14">
         <v>-1</v>
@@ -1645,10 +1645,10 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C15">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D15">
         <v>-1</v>
@@ -1669,13 +1669,13 @@
         <v>-1</v>
       </c>
       <c r="J15">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="K15">
         <v>-1</v>
       </c>
       <c r="L15">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="M15">
         <v>-1</v>
@@ -1719,7 +1719,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="E16">
         <v>6</v>
@@ -1734,16 +1734,16 @@
         <v>-1</v>
       </c>
       <c r="I16">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J16">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="K16">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L16">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M16">
         <v>-1</v>
@@ -1784,7 +1784,7 @@
         <v>6</v>
       </c>
       <c r="C17">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D17">
         <v>8</v>
@@ -1802,16 +1802,16 @@
         <v>7</v>
       </c>
       <c r="I17">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J17">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="K17">
         <v>-1</v>
       </c>
       <c r="L17">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M17">
         <v>-1</v>
@@ -1852,10 +1852,10 @@
         <v>6</v>
       </c>
       <c r="C18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D18">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="E18">
         <v>8</v>
@@ -1870,13 +1870,13 @@
         <v>8</v>
       </c>
       <c r="I18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J18">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="K18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L18">
         <v>-1</v>
@@ -1920,7 +1920,7 @@
         <v>-1</v>
       </c>
       <c r="C19">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D19">
         <v>-1</v>
@@ -1988,10 +1988,10 @@
         <v>-1</v>
       </c>
       <c r="C20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D20">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="E20">
         <v>-1</v>
@@ -2053,10 +2053,10 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C21">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D21">
         <v>-1</v>
@@ -2074,7 +2074,7 @@
         <v>-1</v>
       </c>
       <c r="I21">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J21">
         <v>-1</v>
@@ -2124,7 +2124,7 @@
         <v>-1</v>
       </c>
       <c r="C22">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D22">
         <v>-1</v>
@@ -2192,7 +2192,7 @@
         <v>-1</v>
       </c>
       <c r="C23">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D23">
         <v>-1</v>
@@ -2257,13 +2257,13 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="C24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="D24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E24">
         <v>7</v>
@@ -2328,7 +2328,7 @@
         <v>6</v>
       </c>
       <c r="C25">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D25">
         <v>-1</v>
@@ -2396,7 +2396,7 @@
         <v>6</v>
       </c>
       <c r="C26">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D26">
         <v>-1</v>
@@ -2414,7 +2414,7 @@
         <v>-1</v>
       </c>
       <c r="I26">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J26">
         <v>-1</v>
@@ -2423,7 +2423,7 @@
         <v>-1</v>
       </c>
       <c r="L26">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M26">
         <v>-1</v>
@@ -2464,7 +2464,7 @@
         <v>-1</v>
       </c>
       <c r="C27">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D27">
         <v>8</v>
@@ -2488,7 +2488,7 @@
         <v>-1</v>
       </c>
       <c r="K27">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L27">
         <v>-1</v>
@@ -2532,10 +2532,10 @@
         <v>6</v>
       </c>
       <c r="C28">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D28">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E28">
         <v>7</v>
@@ -2600,7 +2600,7 @@
         <v>6</v>
       </c>
       <c r="C29">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D29">
         <v>-1</v>
@@ -2618,7 +2618,7 @@
         <v>-1</v>
       </c>
       <c r="I29">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J29">
         <v>-1</v>
@@ -2668,7 +2668,7 @@
         <v>-1</v>
       </c>
       <c r="C30">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D30">
         <v>-1</v>
@@ -2736,7 +2736,7 @@
         <v>6</v>
       </c>
       <c r="C31">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D31">
         <v>-1</v>
@@ -2804,7 +2804,7 @@
         <v>-1</v>
       </c>
       <c r="C32">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="D32">
         <v>-1</v>
@@ -2831,7 +2831,7 @@
         <v>-1</v>
       </c>
       <c r="L32">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="M32">
         <v>-1</v>
@@ -2919,7 +2919,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
         <v>50</v>
@@ -2928,13 +2928,13 @@
         <v>29</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>10.34</v>
+        <v>20.69</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -2943,79 +2943,79 @@
         <v>8</v>
       </c>
       <c r="I2">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="J2">
-        <v>89.66</v>
+        <v>79.31</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C3">
         <v>29</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>13.79</v>
+        <v>27.59</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="I3">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J3">
-        <v>86.20999999999999</v>
+        <v>72.41</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4">
         <v>29</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>20.69</v>
+        <v>34.48</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="I4">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J4">
-        <v>79.31</v>
+        <v>65.52</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
         <v>52</v>
@@ -3024,30 +3024,30 @@
         <v>29</v>
       </c>
       <c r="D5">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>27.59</v>
+        <v>37.93</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.5</v>
+        <v>7.1</v>
       </c>
       <c r="I5">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J5">
-        <v>72.41</v>
+        <v>62.07</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>53</v>
@@ -3056,25 +3056,25 @@
         <v>29</v>
       </c>
       <c r="D6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6">
+        <v>18</v>
+      </c>
+      <c r="F6">
+        <v>37.93</v>
+      </c>
+      <c r="G6">
+        <v>62.07</v>
+      </c>
+      <c r="H6">
+        <v>5.6</v>
+      </c>
+      <c r="I6">
         <v>0</v>
       </c>
-      <c r="F6">
-        <v>34.48</v>
-      </c>
-      <c r="G6">
+      <c r="J6">
         <v>0</v>
-      </c>
-      <c r="H6">
-        <v>7.7</v>
-      </c>
-      <c r="I6">
-        <v>19</v>
-      </c>
-      <c r="J6">
-        <v>65.52</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -3088,25 +3088,25 @@
         <v>29</v>
       </c>
       <c r="D7">
+        <v>14</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>48.28</v>
+      </c>
+      <c r="G7">
+        <v>10.34</v>
+      </c>
+      <c r="H7">
+        <v>6</v>
+      </c>
+      <c r="I7">
         <v>12</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
+      <c r="J7">
         <v>41.38</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>6.3</v>
-      </c>
-      <c r="I7">
-        <v>17</v>
-      </c>
-      <c r="J7">
-        <v>58.62</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -3148,7 +3148,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F146"/>
+  <dimension ref="A1:F175"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3192,10 +3192,10 @@
         <v>107</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3212,10 +3212,10 @@
         <v>107</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3235,7 +3235,7 @@
         <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3252,10 +3252,10 @@
         <v>107</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3272,10 +3272,10 @@
         <v>107</v>
       </c>
       <c r="E6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3292,10 +3292,10 @@
         <v>107</v>
       </c>
       <c r="E7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3312,10 +3312,10 @@
         <v>107</v>
       </c>
       <c r="E8" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3332,7 +3332,7 @@
         <v>108</v>
       </c>
       <c r="E9" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F9" t="s">
         <v>50</v>
@@ -3352,10 +3352,10 @@
         <v>108</v>
       </c>
       <c r="E10" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3372,190 +3372,190 @@
         <v>108</v>
       </c>
       <c r="E11" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>19330051920046</v>
+        <v>19330051920045</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E12" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>19330051920046</v>
+        <v>19330051920045</v>
       </c>
       <c r="B13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E13" t="s">
         <v>5</v>
       </c>
       <c r="F13" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>19330051920046</v>
+        <v>19330051920045</v>
       </c>
       <c r="B14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E14" t="s">
         <v>6</v>
       </c>
       <c r="F14" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>19330051920051</v>
+        <v>19330051920046</v>
       </c>
       <c r="B15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C15" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="D15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E15" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F15" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>19330051920051</v>
+        <v>19330051920046</v>
       </c>
       <c r="B16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C16" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="D16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E16" t="s">
         <v>5</v>
       </c>
       <c r="F16" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>19330051920051</v>
+        <v>19330051920046</v>
       </c>
       <c r="B17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C17" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="D17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E17" t="s">
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>19330051920051</v>
+        <v>19330051920046</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C18" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="D18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E18" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>19330051920051</v>
+        <v>19330051920046</v>
       </c>
       <c r="B19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C19" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="D19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E19" t="s">
         <v>6</v>
       </c>
       <c r="F19" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>19330051920051</v>
+        <v>19330051920046</v>
       </c>
       <c r="B20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C20" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="D20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F20" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -3572,130 +3572,130 @@
         <v>110</v>
       </c>
       <c r="E21" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>19330051920049</v>
+        <v>19330051920051</v>
       </c>
       <c r="B22" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" t="s">
         <v>64</v>
       </c>
-      <c r="C22" t="s">
-        <v>88</v>
-      </c>
       <c r="D22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E22" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>19330051920049</v>
+        <v>19330051920051</v>
       </c>
       <c r="B23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" t="s">
         <v>64</v>
       </c>
-      <c r="C23" t="s">
-        <v>88</v>
-      </c>
       <c r="D23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E23" t="s">
         <v>8</v>
       </c>
       <c r="F23" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>19330051920049</v>
+        <v>19330051920051</v>
       </c>
       <c r="B24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" t="s">
         <v>64</v>
       </c>
-      <c r="C24" t="s">
-        <v>88</v>
-      </c>
       <c r="D24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E24" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F24" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>19330051920049</v>
+        <v>19330051920051</v>
       </c>
       <c r="B25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C25" t="s">
         <v>64</v>
       </c>
-      <c r="C25" t="s">
-        <v>88</v>
-      </c>
       <c r="D25" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F25" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>19330051920049</v>
+        <v>19330051920051</v>
       </c>
       <c r="B26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" t="s">
         <v>64</v>
       </c>
-      <c r="C26" t="s">
-        <v>88</v>
-      </c>
       <c r="D26" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E26" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F26" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>19330051920049</v>
+        <v>19330051920051</v>
       </c>
       <c r="B27" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" t="s">
         <v>64</v>
       </c>
-      <c r="C27" t="s">
-        <v>88</v>
-      </c>
       <c r="D27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E27" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F27" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -3712,67 +3712,67 @@
         <v>111</v>
       </c>
       <c r="E28" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>19330051920052</v>
+        <v>19330051920049</v>
       </c>
       <c r="B29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D29" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F29" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>19330051920052</v>
+        <v>19330051920049</v>
       </c>
       <c r="B30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C30" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D30" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F30" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>19330051920052</v>
+        <v>19330051920049</v>
       </c>
       <c r="B31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C31" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D31" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E31" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F31" t="s">
         <v>50</v>
@@ -3780,62 +3780,62 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>19330051920052</v>
+        <v>19330051920049</v>
       </c>
       <c r="B32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C32" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E32" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F32" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>19330051920052</v>
+        <v>19330051920049</v>
       </c>
       <c r="B33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C33" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D33" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F33" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>19330051920052</v>
+        <v>19330051920049</v>
       </c>
       <c r="B34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C34" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D34" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E34" t="s">
         <v>9</v>
       </c>
       <c r="F34" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -3852,127 +3852,127 @@
         <v>112</v>
       </c>
       <c r="E35" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F35" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>19330051920053</v>
+        <v>19330051920052</v>
       </c>
       <c r="B36" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C36" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D36" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E36" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F36" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>19330051920055</v>
+        <v>19330051920052</v>
       </c>
       <c r="B37" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C37" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D37" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E37" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>19330051920055</v>
+        <v>19330051920052</v>
       </c>
       <c r="B38" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C38" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D38" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E38" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F38" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>19330051920055</v>
+        <v>19330051920052</v>
       </c>
       <c r="B39" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C39" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D39" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F39" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>19330051920055</v>
+        <v>19330051920052</v>
       </c>
       <c r="B40" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C40" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D40" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E40" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F40" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>19330051920057</v>
+        <v>19330051920052</v>
       </c>
       <c r="B41" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C41" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D41" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E41" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F41" t="s">
         <v>52</v>
@@ -3980,239 +3980,239 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>19330051920057</v>
+        <v>19330051920053</v>
       </c>
       <c r="B42" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C42" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D42" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E42" t="s">
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>19330051920057</v>
+        <v>19330051920053</v>
       </c>
       <c r="B43" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C43" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D43" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E43" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F43" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>19330051920056</v>
+        <v>19330051920053</v>
       </c>
       <c r="B44" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C44" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D44" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E44" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F44" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>19330051920056</v>
+        <v>19330051920053</v>
       </c>
       <c r="B45" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C45" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D45" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E45" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F45" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>19330051920056</v>
+        <v>19330051920055</v>
       </c>
       <c r="B46" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C46" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D46" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E46" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>18330051920022</v>
+        <v>19330051920055</v>
       </c>
       <c r="B47" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C47" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D47" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F47" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>18330051920022</v>
+        <v>19330051920055</v>
       </c>
       <c r="B48" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C48" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D48" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E48" t="s">
         <v>9</v>
       </c>
       <c r="F48" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>18330051920022</v>
+        <v>19330051920055</v>
       </c>
       <c r="B49" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C49" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D49" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E49" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F49" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>18330051920022</v>
+        <v>19330051920055</v>
       </c>
       <c r="B50" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C50" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D50" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E50" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F50" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>18330051920022</v>
+        <v>19330051920055</v>
       </c>
       <c r="B51" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C51" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D51" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E51" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F51" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>18330051920022</v>
+        <v>19330051920057</v>
       </c>
       <c r="B52" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C52" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D52" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F52" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>19330051920058</v>
+        <v>19330051920057</v>
       </c>
       <c r="B53" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C53" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="D53" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E53" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F53" t="s">
         <v>52</v>
@@ -4220,119 +4220,119 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>19330051920058</v>
+        <v>19330051920057</v>
       </c>
       <c r="B54" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C54" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="D54" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E54" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F54" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>19330051920058</v>
+        <v>19330051920057</v>
       </c>
       <c r="B55" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C55" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="D55" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E55" t="s">
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>19330051920058</v>
+        <v>19330051920056</v>
       </c>
       <c r="B56" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C56" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="D56" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E56" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F56" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>19330051920060</v>
+        <v>19330051920056</v>
       </c>
       <c r="B57" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C57" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D57" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E57" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>19330051920060</v>
+        <v>19330051920056</v>
       </c>
       <c r="B58" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C58" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D58" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E58" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F58" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>19330051920059</v>
+        <v>19330051920056</v>
       </c>
       <c r="B59" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C59" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="D59" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E59" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F59" t="s">
         <v>51</v>
@@ -4340,19 +4340,19 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>19330051920059</v>
+        <v>19330051920056</v>
       </c>
       <c r="B60" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C60" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="D60" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E60" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F60" t="s">
         <v>50</v>
@@ -4360,119 +4360,119 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>19330051920061</v>
+        <v>18330051920022</v>
       </c>
       <c r="B61" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C61" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D61" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E61" t="s">
         <v>6</v>
       </c>
       <c r="F61" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>19330051920061</v>
+        <v>18330051920022</v>
       </c>
       <c r="B62" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C62" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D62" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E62" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>19330051920061</v>
+        <v>18330051920022</v>
       </c>
       <c r="B63" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C63" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D63" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E63" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F63" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>19330051920061</v>
+        <v>18330051920022</v>
       </c>
       <c r="B64" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C64" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D64" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F64" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>19330051920061</v>
+        <v>18330051920022</v>
       </c>
       <c r="B65" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C65" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D65" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F65" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>19330051920050</v>
+        <v>19330051920058</v>
       </c>
       <c r="B66" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C66" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="D66" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E66" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F66" t="s">
         <v>50</v>
@@ -4480,216 +4480,216 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>19330051920050</v>
+        <v>19330051920058</v>
       </c>
       <c r="B67" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C67" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="D67" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E67" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>19330051920050</v>
+        <v>19330051920058</v>
       </c>
       <c r="B68" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C68" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="D68" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F68" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>19330051920050</v>
+        <v>19330051920060</v>
       </c>
       <c r="B69" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C69" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="D69" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E69" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>19330051920050</v>
+        <v>19330051920060</v>
       </c>
       <c r="B70" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C70" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="D70" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E70" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F70" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>19330051920050</v>
+        <v>19330051920060</v>
       </c>
       <c r="B71" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C71" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="D71" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E71" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F71" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>19330051920064</v>
+        <v>19330051920060</v>
       </c>
       <c r="B72" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C72" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D72" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E72" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F72" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>19330051920064</v>
+        <v>19330051920059</v>
       </c>
       <c r="B73" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C73" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="D73" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E73" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F73" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>19330051920064</v>
+        <v>19330051920059</v>
       </c>
       <c r="B74" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C74" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="D74" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F74" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>19330051920064</v>
+        <v>19330051920059</v>
       </c>
       <c r="B75" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C75" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="D75" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E75" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F75" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>19330051920064</v>
+        <v>19330051920059</v>
       </c>
       <c r="B76" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C76" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="D76" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E76" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>19330051920064</v>
+        <v>19330051920061</v>
       </c>
       <c r="B77" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C77" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D77" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E77" t="s">
         <v>4</v>
@@ -4700,196 +4700,196 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>19330051920064</v>
+        <v>19330051920061</v>
       </c>
       <c r="B78" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C78" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D78" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E78" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>19330051920067</v>
+        <v>19330051920061</v>
       </c>
       <c r="B79" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C79" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D79" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E79" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F79" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>19330051920067</v>
+        <v>19330051920061</v>
       </c>
       <c r="B80" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C80" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D80" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E80" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F80" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>19330051920067</v>
+        <v>19330051920061</v>
       </c>
       <c r="B81" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C81" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D81" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E81" t="s">
         <v>5</v>
       </c>
       <c r="F81" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>19330051920067</v>
+        <v>19330051920061</v>
       </c>
       <c r="B82" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C82" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D82" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E82" t="s">
         <v>6</v>
       </c>
       <c r="F82" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>19330051920067</v>
+        <v>19330051920061</v>
       </c>
       <c r="B83" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C83" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D83" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F83" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>19330051920068</v>
+        <v>19330051920050</v>
       </c>
       <c r="B84" t="s">
+        <v>72</v>
+      </c>
+      <c r="C84" t="s">
         <v>74</v>
       </c>
-      <c r="C84" t="s">
-        <v>98</v>
-      </c>
       <c r="D84" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E84" t="s">
         <v>6</v>
       </c>
       <c r="F84" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>19330051920068</v>
+        <v>19330051920050</v>
       </c>
       <c r="B85" t="s">
+        <v>72</v>
+      </c>
+      <c r="C85" t="s">
         <v>74</v>
       </c>
-      <c r="C85" t="s">
-        <v>98</v>
-      </c>
       <c r="D85" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F85" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>19330051920068</v>
+        <v>19330051920050</v>
       </c>
       <c r="B86" t="s">
+        <v>72</v>
+      </c>
+      <c r="C86" t="s">
         <v>74</v>
       </c>
-      <c r="C86" t="s">
-        <v>98</v>
-      </c>
       <c r="D86" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E86" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F86" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>19330051920068</v>
+        <v>19330051920050</v>
       </c>
       <c r="B87" t="s">
+        <v>72</v>
+      </c>
+      <c r="C87" t="s">
         <v>74</v>
       </c>
-      <c r="C87" t="s">
-        <v>98</v>
-      </c>
       <c r="D87" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E87" t="s">
         <v>4</v>
@@ -4900,99 +4900,99 @@
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
-        <v>19330051920068</v>
+        <v>19330051920050</v>
       </c>
       <c r="B88" t="s">
+        <v>72</v>
+      </c>
+      <c r="C88" t="s">
         <v>74</v>
       </c>
-      <c r="C88" t="s">
-        <v>98</v>
-      </c>
       <c r="D88" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F88" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
-        <v>19330051920068</v>
+        <v>19330051920050</v>
       </c>
       <c r="B89" t="s">
+        <v>72</v>
+      </c>
+      <c r="C89" t="s">
         <v>74</v>
       </c>
-      <c r="C89" t="s">
-        <v>98</v>
-      </c>
       <c r="D89" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E89" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90">
-        <v>19330051920068</v>
+        <v>19330051920050</v>
       </c>
       <c r="B90" t="s">
+        <v>72</v>
+      </c>
+      <c r="C90" t="s">
         <v>74</v>
       </c>
-      <c r="C90" t="s">
-        <v>98</v>
-      </c>
       <c r="D90" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E90" t="s">
         <v>9</v>
       </c>
       <c r="F90" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91">
-        <v>19330051920069</v>
+        <v>19330051920064</v>
       </c>
       <c r="B91" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C91" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D91" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E91" t="s">
         <v>9</v>
       </c>
       <c r="F91" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
-        <v>19330051920069</v>
+        <v>19330051920064</v>
       </c>
       <c r="B92" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C92" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D92" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E92" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F92" t="s">
         <v>50</v>
@@ -5000,59 +5000,59 @@
     </row>
     <row r="93" spans="1:6">
       <c r="A93">
-        <v>19330051920069</v>
+        <v>19330051920064</v>
       </c>
       <c r="B93" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C93" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D93" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E93" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F93" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
-        <v>19330051920069</v>
+        <v>19330051920064</v>
       </c>
       <c r="B94" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C94" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D94" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E94" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F94" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95">
-        <v>19330051920069</v>
+        <v>19330051920064</v>
       </c>
       <c r="B95" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C95" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D95" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E95" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F95" t="s">
         <v>52</v>
@@ -5060,99 +5060,99 @@
     </row>
     <row r="96" spans="1:6">
       <c r="A96">
-        <v>19330051920069</v>
+        <v>19330051920064</v>
       </c>
       <c r="B96" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C96" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D96" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F96" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97">
-        <v>19330051920069</v>
+        <v>19330051920064</v>
       </c>
       <c r="B97" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C97" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D97" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E97" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98">
-        <v>19330051920071</v>
+        <v>19330051920067</v>
       </c>
       <c r="B98" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C98" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D98" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E98" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F98" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99">
-        <v>19330051920071</v>
+        <v>19330051920067</v>
       </c>
       <c r="B99" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C99" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D99" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E99" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F99" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100">
-        <v>19330051920071</v>
+        <v>19330051920067</v>
       </c>
       <c r="B100" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C100" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D100" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E100" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F100" t="s">
         <v>50</v>
@@ -5160,99 +5160,99 @@
     </row>
     <row r="101" spans="1:6">
       <c r="A101">
-        <v>19330051920071</v>
+        <v>19330051920067</v>
       </c>
       <c r="B101" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C101" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D101" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E101" t="s">
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102">
-        <v>18330051920074</v>
+        <v>19330051920067</v>
       </c>
       <c r="B102" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C102" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D102" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E102" t="s">
         <v>5</v>
       </c>
       <c r="F102" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103">
-        <v>18330051920074</v>
+        <v>19330051920067</v>
       </c>
       <c r="B103" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C103" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D103" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E103" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F103" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104">
-        <v>18330051920074</v>
+        <v>19330051920068</v>
       </c>
       <c r="B104" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C104" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D104" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E104" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F104" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105">
-        <v>18330051920074</v>
+        <v>19330051920068</v>
       </c>
       <c r="B105" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C105" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D105" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E105" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F105" t="s">
         <v>50</v>
@@ -5260,319 +5260,319 @@
     </row>
     <row r="106" spans="1:6">
       <c r="A106">
-        <v>18330051920074</v>
+        <v>19330051920068</v>
       </c>
       <c r="B106" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C106" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D106" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E106" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F106" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107">
-        <v>18330051920074</v>
+        <v>19330051920068</v>
       </c>
       <c r="B107" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C107" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D107" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F107" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108">
-        <v>19330051920074</v>
+        <v>19330051920068</v>
       </c>
       <c r="B108" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C108" t="s">
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="D108" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109">
-        <v>19330051920074</v>
+        <v>19330051920068</v>
       </c>
       <c r="B109" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C109" t="s">
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="D109" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F109" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110">
-        <v>19330051920074</v>
+        <v>19330051920068</v>
       </c>
       <c r="B110" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C110" t="s">
-        <v>63</v>
+        <v>98</v>
       </c>
       <c r="D110" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E110" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F110" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111">
-        <v>19330051920074</v>
+        <v>19330051920069</v>
       </c>
       <c r="B111" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C111" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="D111" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E111" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F111" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112">
-        <v>19330051920074</v>
+        <v>19330051920069</v>
       </c>
       <c r="B112" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C112" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="D112" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E112" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F112" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113">
-        <v>19330051920075</v>
+        <v>19330051920069</v>
       </c>
       <c r="B113" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C113" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D113" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E113" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114">
-        <v>19330051920075</v>
+        <v>19330051920069</v>
       </c>
       <c r="B114" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C114" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D114" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E114" t="s">
         <v>9</v>
       </c>
       <c r="F114" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115">
-        <v>19330051920075</v>
+        <v>19330051920069</v>
       </c>
       <c r="B115" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C115" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D115" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F115" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116">
-        <v>19330051920075</v>
+        <v>19330051920069</v>
       </c>
       <c r="B116" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C116" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D116" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E116" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F116" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117">
-        <v>19330051920075</v>
+        <v>19330051920069</v>
       </c>
       <c r="B117" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C117" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D117" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E117" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F117" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118">
-        <v>19330051920075</v>
+        <v>19330051920071</v>
       </c>
       <c r="B118" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C118" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D118" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F118" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119">
-        <v>19330051920418</v>
+        <v>19330051920071</v>
       </c>
       <c r="B119" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C119" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D119" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E119" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F119" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120">
-        <v>19330051920418</v>
+        <v>19330051920071</v>
       </c>
       <c r="B120" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C120" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D120" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E120" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121">
-        <v>19330051920418</v>
+        <v>19330051920071</v>
       </c>
       <c r="B121" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C121" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D121" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F121" t="s">
         <v>52</v>
@@ -5580,79 +5580,79 @@
     </row>
     <row r="122" spans="1:6">
       <c r="A122">
-        <v>19330051920418</v>
+        <v>19330051920071</v>
       </c>
       <c r="B122" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C122" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D122" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E122" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F122" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123">
-        <v>19330051920076</v>
+        <v>19330051920071</v>
       </c>
       <c r="B123" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C123" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D123" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="E123" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F123" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124">
-        <v>19330051920076</v>
+        <v>19330051920071</v>
       </c>
       <c r="B124" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C124" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D124" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="E124" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F124" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125">
-        <v>19330051920076</v>
+        <v>18330051920074</v>
       </c>
       <c r="B125" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C125" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D125" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="E125" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F125" t="s">
         <v>50</v>
@@ -5660,39 +5660,39 @@
     </row>
     <row r="126" spans="1:6">
       <c r="A126">
-        <v>19330051920076</v>
+        <v>18330051920074</v>
       </c>
       <c r="B126" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C126" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D126" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="E126" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F126" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127">
-        <v>19330051920076</v>
+        <v>18330051920074</v>
       </c>
       <c r="B127" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C127" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D127" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="E127" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F127" t="s">
         <v>53</v>
@@ -5700,119 +5700,119 @@
     </row>
     <row r="128" spans="1:6">
       <c r="A128">
-        <v>19330051920076</v>
+        <v>18330051920074</v>
       </c>
       <c r="B128" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C128" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D128" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F128" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129">
-        <v>18330051920029</v>
+        <v>18330051920074</v>
       </c>
       <c r="B129" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C129" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D129" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="130" spans="1:6">
       <c r="A130">
-        <v>18330051920029</v>
+        <v>18330051920074</v>
       </c>
       <c r="B130" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C130" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D130" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E130" t="s">
         <v>6</v>
       </c>
       <c r="F130" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="131" spans="1:6">
       <c r="A131">
-        <v>18330051920029</v>
+        <v>18330051920074</v>
       </c>
       <c r="B131" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C131" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D131" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E131" t="s">
         <v>9</v>
       </c>
       <c r="F131" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="132" spans="1:6">
       <c r="A132">
-        <v>18330051920029</v>
+        <v>19330051920074</v>
       </c>
       <c r="B132" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C132" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="D132" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E132" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F132" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="133" spans="1:6">
       <c r="A133">
-        <v>18330051920029</v>
+        <v>19330051920074</v>
       </c>
       <c r="B133" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C133" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="D133" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E133" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F133" t="s">
         <v>51</v>
@@ -5820,39 +5820,39 @@
     </row>
     <row r="134" spans="1:6">
       <c r="A134">
-        <v>18330051920029</v>
+        <v>19330051920074</v>
       </c>
       <c r="B134" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C134" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="D134" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F134" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="135" spans="1:6">
       <c r="A135">
-        <v>18330051920029</v>
+        <v>19330051920074</v>
       </c>
       <c r="B135" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C135" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="D135" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F135" t="s">
         <v>52</v>
@@ -5860,19 +5860,19 @@
     </row>
     <row r="136" spans="1:6">
       <c r="A136">
-        <v>19330051920079</v>
+        <v>19330051920074</v>
       </c>
       <c r="B136" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C136" t="s">
-        <v>106</v>
+        <v>63</v>
       </c>
       <c r="D136" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E136" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F136" t="s">
         <v>50</v>
@@ -5880,19 +5880,19 @@
     </row>
     <row r="137" spans="1:6">
       <c r="A137">
-        <v>19330051920079</v>
+        <v>19330051920075</v>
       </c>
       <c r="B137" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C137" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D137" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E137" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F137" t="s">
         <v>53</v>
@@ -5900,19 +5900,19 @@
     </row>
     <row r="138" spans="1:6">
       <c r="A138">
-        <v>19330051920079</v>
+        <v>19330051920075</v>
       </c>
       <c r="B138" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C138" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D138" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E138" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F138" t="s">
         <v>51</v>
@@ -5920,119 +5920,119 @@
     </row>
     <row r="139" spans="1:6">
       <c r="A139">
-        <v>19330051920079</v>
+        <v>19330051920075</v>
       </c>
       <c r="B139" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C139" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D139" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E139" t="s">
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="140" spans="1:6">
       <c r="A140">
-        <v>19330051920079</v>
+        <v>19330051920075</v>
       </c>
       <c r="B140" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C140" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D140" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E140" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F140" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="141" spans="1:6">
       <c r="A141">
-        <v>19330051920079</v>
+        <v>19330051920075</v>
       </c>
       <c r="B141" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C141" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D141" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E141" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F141" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="142" spans="1:6">
       <c r="A142">
-        <v>19330051920081</v>
+        <v>19330051920075</v>
       </c>
       <c r="B142" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C142" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="D142" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E142" t="s">
         <v>8</v>
       </c>
       <c r="F142" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="143" spans="1:6">
       <c r="A143">
-        <v>19330051920081</v>
+        <v>19330051920418</v>
       </c>
       <c r="B143" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C143" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="D143" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E143" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F143" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="144" spans="1:6">
       <c r="A144">
-        <v>19330051920081</v>
+        <v>19330051920418</v>
       </c>
       <c r="B144" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C144" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="D144" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E144" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F144" t="s">
         <v>52</v>
@@ -6040,41 +6040,621 @@
     </row>
     <row r="145" spans="1:6">
       <c r="A145">
-        <v>19330051920081</v>
+        <v>19330051920418</v>
       </c>
       <c r="B145" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C145" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="D145" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E145" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="146" spans="1:6">
       <c r="A146">
+        <v>19330051920418</v>
+      </c>
+      <c r="B146" t="s">
+        <v>80</v>
+      </c>
+      <c r="C146" t="s">
+        <v>103</v>
+      </c>
+      <c r="D146" t="s">
+        <v>131</v>
+      </c>
+      <c r="E146" t="s">
+        <v>7</v>
+      </c>
+      <c r="F146" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147">
+        <v>19330051920418</v>
+      </c>
+      <c r="B147" t="s">
+        <v>80</v>
+      </c>
+      <c r="C147" t="s">
+        <v>103</v>
+      </c>
+      <c r="D147" t="s">
+        <v>131</v>
+      </c>
+      <c r="E147" t="s">
+        <v>5</v>
+      </c>
+      <c r="F147" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148">
+        <v>19330051920418</v>
+      </c>
+      <c r="B148" t="s">
+        <v>80</v>
+      </c>
+      <c r="C148" t="s">
+        <v>103</v>
+      </c>
+      <c r="D148" t="s">
+        <v>131</v>
+      </c>
+      <c r="E148" t="s">
+        <v>8</v>
+      </c>
+      <c r="F148" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149">
+        <v>19330051920418</v>
+      </c>
+      <c r="B149" t="s">
+        <v>80</v>
+      </c>
+      <c r="C149" t="s">
+        <v>103</v>
+      </c>
+      <c r="D149" t="s">
+        <v>131</v>
+      </c>
+      <c r="E149" t="s">
+        <v>4</v>
+      </c>
+      <c r="F149" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150">
+        <v>19330051920076</v>
+      </c>
+      <c r="B150" t="s">
+        <v>81</v>
+      </c>
+      <c r="C150" t="s">
+        <v>104</v>
+      </c>
+      <c r="D150" t="s">
+        <v>120</v>
+      </c>
+      <c r="E150" t="s">
+        <v>8</v>
+      </c>
+      <c r="F150" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151">
+        <v>19330051920076</v>
+      </c>
+      <c r="B151" t="s">
+        <v>81</v>
+      </c>
+      <c r="C151" t="s">
+        <v>104</v>
+      </c>
+      <c r="D151" t="s">
+        <v>120</v>
+      </c>
+      <c r="E151" t="s">
+        <v>5</v>
+      </c>
+      <c r="F151" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152">
+        <v>19330051920076</v>
+      </c>
+      <c r="B152" t="s">
+        <v>81</v>
+      </c>
+      <c r="C152" t="s">
+        <v>104</v>
+      </c>
+      <c r="D152" t="s">
+        <v>120</v>
+      </c>
+      <c r="E152" t="s">
+        <v>6</v>
+      </c>
+      <c r="F152" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153">
+        <v>19330051920076</v>
+      </c>
+      <c r="B153" t="s">
+        <v>81</v>
+      </c>
+      <c r="C153" t="s">
+        <v>104</v>
+      </c>
+      <c r="D153" t="s">
+        <v>120</v>
+      </c>
+      <c r="E153" t="s">
+        <v>9</v>
+      </c>
+      <c r="F153" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154">
+        <v>19330051920076</v>
+      </c>
+      <c r="B154" t="s">
+        <v>81</v>
+      </c>
+      <c r="C154" t="s">
+        <v>104</v>
+      </c>
+      <c r="D154" t="s">
+        <v>120</v>
+      </c>
+      <c r="E154" t="s">
+        <v>10</v>
+      </c>
+      <c r="F154" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155">
+        <v>19330051920076</v>
+      </c>
+      <c r="B155" t="s">
+        <v>81</v>
+      </c>
+      <c r="C155" t="s">
+        <v>104</v>
+      </c>
+      <c r="D155" t="s">
+        <v>120</v>
+      </c>
+      <c r="E155" t="s">
+        <v>7</v>
+      </c>
+      <c r="F155" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156">
+        <v>18330051920029</v>
+      </c>
+      <c r="B156" t="s">
+        <v>82</v>
+      </c>
+      <c r="C156" t="s">
+        <v>105</v>
+      </c>
+      <c r="D156" t="s">
+        <v>132</v>
+      </c>
+      <c r="E156" t="s">
+        <v>4</v>
+      </c>
+      <c r="F156" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157">
+        <v>18330051920029</v>
+      </c>
+      <c r="B157" t="s">
+        <v>82</v>
+      </c>
+      <c r="C157" t="s">
+        <v>105</v>
+      </c>
+      <c r="D157" t="s">
+        <v>132</v>
+      </c>
+      <c r="E157" t="s">
+        <v>9</v>
+      </c>
+      <c r="F157" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158">
+        <v>18330051920029</v>
+      </c>
+      <c r="B158" t="s">
+        <v>82</v>
+      </c>
+      <c r="C158" t="s">
+        <v>105</v>
+      </c>
+      <c r="D158" t="s">
+        <v>132</v>
+      </c>
+      <c r="E158" t="s">
+        <v>10</v>
+      </c>
+      <c r="F158" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159">
+        <v>18330051920029</v>
+      </c>
+      <c r="B159" t="s">
+        <v>82</v>
+      </c>
+      <c r="C159" t="s">
+        <v>105</v>
+      </c>
+      <c r="D159" t="s">
+        <v>132</v>
+      </c>
+      <c r="E159" t="s">
+        <v>6</v>
+      </c>
+      <c r="F159" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160">
+        <v>18330051920029</v>
+      </c>
+      <c r="B160" t="s">
+        <v>82</v>
+      </c>
+      <c r="C160" t="s">
+        <v>105</v>
+      </c>
+      <c r="D160" t="s">
+        <v>132</v>
+      </c>
+      <c r="E160" t="s">
+        <v>5</v>
+      </c>
+      <c r="F160" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161">
+        <v>18330051920029</v>
+      </c>
+      <c r="B161" t="s">
+        <v>82</v>
+      </c>
+      <c r="C161" t="s">
+        <v>105</v>
+      </c>
+      <c r="D161" t="s">
+        <v>132</v>
+      </c>
+      <c r="E161" t="s">
+        <v>7</v>
+      </c>
+      <c r="F161" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162">
+        <v>18330051920029</v>
+      </c>
+      <c r="B162" t="s">
+        <v>82</v>
+      </c>
+      <c r="C162" t="s">
+        <v>105</v>
+      </c>
+      <c r="D162" t="s">
+        <v>132</v>
+      </c>
+      <c r="E162" t="s">
+        <v>8</v>
+      </c>
+      <c r="F162" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163">
+        <v>19330051920079</v>
+      </c>
+      <c r="B163" t="s">
+        <v>83</v>
+      </c>
+      <c r="C163" t="s">
+        <v>106</v>
+      </c>
+      <c r="D163" t="s">
+        <v>133</v>
+      </c>
+      <c r="E163" t="s">
+        <v>5</v>
+      </c>
+      <c r="F163" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164">
+        <v>19330051920079</v>
+      </c>
+      <c r="B164" t="s">
+        <v>83</v>
+      </c>
+      <c r="C164" t="s">
+        <v>106</v>
+      </c>
+      <c r="D164" t="s">
+        <v>133</v>
+      </c>
+      <c r="E164" t="s">
+        <v>10</v>
+      </c>
+      <c r="F164" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165">
+        <v>19330051920079</v>
+      </c>
+      <c r="B165" t="s">
+        <v>83</v>
+      </c>
+      <c r="C165" t="s">
+        <v>106</v>
+      </c>
+      <c r="D165" t="s">
+        <v>133</v>
+      </c>
+      <c r="E165" t="s">
+        <v>4</v>
+      </c>
+      <c r="F165" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166">
+        <v>19330051920079</v>
+      </c>
+      <c r="B166" t="s">
+        <v>83</v>
+      </c>
+      <c r="C166" t="s">
+        <v>106</v>
+      </c>
+      <c r="D166" t="s">
+        <v>133</v>
+      </c>
+      <c r="E166" t="s">
+        <v>6</v>
+      </c>
+      <c r="F166" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167">
+        <v>19330051920079</v>
+      </c>
+      <c r="B167" t="s">
+        <v>83</v>
+      </c>
+      <c r="C167" t="s">
+        <v>106</v>
+      </c>
+      <c r="D167" t="s">
+        <v>133</v>
+      </c>
+      <c r="E167" t="s">
+        <v>9</v>
+      </c>
+      <c r="F167" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
+      <c r="A168">
+        <v>19330051920079</v>
+      </c>
+      <c r="B168" t="s">
+        <v>83</v>
+      </c>
+      <c r="C168" t="s">
+        <v>106</v>
+      </c>
+      <c r="D168" t="s">
+        <v>133</v>
+      </c>
+      <c r="E168" t="s">
+        <v>7</v>
+      </c>
+      <c r="F168" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="A169">
+        <v>19330051920079</v>
+      </c>
+      <c r="B169" t="s">
+        <v>83</v>
+      </c>
+      <c r="C169" t="s">
+        <v>106</v>
+      </c>
+      <c r="D169" t="s">
+        <v>133</v>
+      </c>
+      <c r="E169" t="s">
+        <v>8</v>
+      </c>
+      <c r="F169" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="A170">
         <v>19330051920081</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B170" t="s">
         <v>84</v>
       </c>
-      <c r="C146" t="s">
+      <c r="C170" t="s">
         <v>79</v>
       </c>
-      <c r="D146" t="s">
+      <c r="D170" t="s">
         <v>134</v>
       </c>
-      <c r="E146" t="s">
-        <v>6</v>
-      </c>
-      <c r="F146" t="s">
+      <c r="E170" t="s">
+        <v>4</v>
+      </c>
+      <c r="F170" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="A171">
+        <v>19330051920081</v>
+      </c>
+      <c r="B171" t="s">
+        <v>84</v>
+      </c>
+      <c r="C171" t="s">
+        <v>79</v>
+      </c>
+      <c r="D171" t="s">
+        <v>134</v>
+      </c>
+      <c r="E171" t="s">
+        <v>8</v>
+      </c>
+      <c r="F171" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
+      <c r="A172">
+        <v>19330051920081</v>
+      </c>
+      <c r="B172" t="s">
+        <v>84</v>
+      </c>
+      <c r="C172" t="s">
+        <v>79</v>
+      </c>
+      <c r="D172" t="s">
+        <v>134</v>
+      </c>
+      <c r="E172" t="s">
+        <v>6</v>
+      </c>
+      <c r="F172" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="A173">
+        <v>19330051920081</v>
+      </c>
+      <c r="B173" t="s">
+        <v>84</v>
+      </c>
+      <c r="C173" t="s">
+        <v>79</v>
+      </c>
+      <c r="D173" t="s">
+        <v>134</v>
+      </c>
+      <c r="E173" t="s">
+        <v>5</v>
+      </c>
+      <c r="F173" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="A174">
+        <v>19330051920081</v>
+      </c>
+      <c r="B174" t="s">
+        <v>84</v>
+      </c>
+      <c r="C174" t="s">
+        <v>79</v>
+      </c>
+      <c r="D174" t="s">
+        <v>134</v>
+      </c>
+      <c r="E174" t="s">
+        <v>9</v>
+      </c>
+      <c r="F174" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="A175">
+        <v>19330051920081</v>
+      </c>
+      <c r="B175" t="s">
+        <v>84</v>
+      </c>
+      <c r="C175" t="s">
+        <v>79</v>
+      </c>
+      <c r="D175" t="s">
+        <v>134</v>
+      </c>
+      <c r="E175" t="s">
+        <v>10</v>
+      </c>
+      <c r="F175" t="s">
         <v>50</v>
       </c>
     </row>
@@ -6126,7 +6706,7 @@
         <v>107</v>
       </c>
       <c r="E2">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -6143,7 +6723,7 @@
         <v>110</v>
       </c>
       <c r="E3">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -6160,7 +6740,7 @@
         <v>111</v>
       </c>
       <c r="E4">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6177,177 +6757,177 @@
         <v>112</v>
       </c>
       <c r="E5">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>19330051920064</v>
+        <v>19330051920068</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D6" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E6">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>19330051920068</v>
+        <v>19330051920069</v>
       </c>
       <c r="B7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E7">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>19330051920069</v>
+        <v>18330051920029</v>
       </c>
       <c r="B8" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C8" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D8" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="E8">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>18330051920029</v>
+        <v>19330051920050</v>
       </c>
       <c r="B9" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C9" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="D9" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="E9">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>18330051920022</v>
+        <v>19330051920064</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C10" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D10" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E10">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>19330051920050</v>
+        <v>18330051920074</v>
       </c>
       <c r="B11" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C11" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="D11" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="E11">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>18330051920074</v>
+        <v>19330051920075</v>
       </c>
       <c r="B12" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D12" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E12">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>19330051920075</v>
+        <v>19330051920076</v>
       </c>
       <c r="B13" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C13" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D13" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="E13">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>19330051920076</v>
+        <v>19330051920079</v>
       </c>
       <c r="B14" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C14" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D14" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="E14">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>19330051920079</v>
+        <v>18330051920022</v>
       </c>
       <c r="B15" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="C15" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="D15" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="E15">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -6364,245 +6944,245 @@
         <v>121</v>
       </c>
       <c r="E16">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>19330051920067</v>
+        <v>19330051920074</v>
       </c>
       <c r="B17" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C17" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="D17" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="E17">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>19330051920074</v>
+        <v>19330051920081</v>
       </c>
       <c r="B18" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C18" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="D18" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E18">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>19330051920081</v>
+        <v>19330051920057</v>
       </c>
       <c r="B19" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="C19" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="D19" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="E19">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>19330051920055</v>
+        <v>19330051920058</v>
       </c>
       <c r="B20" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C20" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="D20" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E20">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>19330051920058</v>
+        <v>19330051920067</v>
       </c>
       <c r="B21" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C21" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="D21" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="E21">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>19330051920071</v>
+        <v>19330051920045</v>
       </c>
       <c r="B22" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="C22" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="D22" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="E22">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>19330051920418</v>
+        <v>19330051920055</v>
       </c>
       <c r="B23" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="C23" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D23" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="E23">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>19330051920045</v>
+        <v>19330051920056</v>
       </c>
       <c r="B24" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C24" t="s">
         <v>86</v>
       </c>
       <c r="D24" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>19330051920046</v>
+        <v>19330051920418</v>
       </c>
       <c r="B25" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="C25" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="D25" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>19330051920057</v>
+        <v>19330051920060</v>
       </c>
       <c r="B26" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C26" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D26" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>19330051920056</v>
+        <v>19330051920071</v>
       </c>
       <c r="B27" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="C27" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="D27" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>19330051920060</v>
+        <v>19330051920046</v>
       </c>
       <c r="B28" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C28" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D28" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>19330051920059</v>
+        <v>19330051920053</v>
       </c>
       <c r="B29" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C29" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="D29" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30">
-        <v>19330051920053</v>
+        <v>19330051920059</v>
       </c>
       <c r="B30" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C30" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="D30" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -6612,7 +7192,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6645,121 +7225,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2">
-        <v>19330051920060</v>
-      </c>
-      <c r="B2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>19330051920060</v>
-      </c>
-      <c r="B3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G3">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>19330051920059</v>
-      </c>
-      <c r="B4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D4" t="s">
-        <v>120</v>
-      </c>
-      <c r="E4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" t="s">
-        <v>51</v>
-      </c>
-      <c r="G4">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>19330051920059</v>
-      </c>
-      <c r="B5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D5" t="s">
-        <v>120</v>
-      </c>
-      <c r="E5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" t="s">
-        <v>50</v>
-      </c>
-      <c r="G5">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>19330051920053</v>
-      </c>
-      <c r="B6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D6" t="s">
-        <v>113</v>
-      </c>
-      <c r="E6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G6">
-        <v>-1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/grupos/4AEV - Estadisticos 2020.xlsx
+++ b/grupos/4AEV - Estadisticos 2020.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="135">
   <si>
     <t>Materia</t>
   </si>
@@ -173,13 +173,13 @@
     <t>Silva Villegas Mario</t>
   </si>
   <si>
+    <t>Polanco Domínguez Rosa María</t>
+  </si>
+  <si>
+    <t>Camarillo Aburto Raymundo</t>
+  </si>
+  <si>
     <t>Zarate Amezcua Eladio Jorge</t>
-  </si>
-  <si>
-    <t>Polanco Domínguez Rosa María</t>
-  </si>
-  <si>
-    <t>Camarillo Aburto Raymundo</t>
   </si>
   <si>
     <t>Ortega Valle Manuel</t>
@@ -912,7 +912,7 @@
         <v>-1</v>
       </c>
       <c r="G4">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H4">
         <v>-1</v>
@@ -1063,13 +1063,13 @@
         <v>-1</v>
       </c>
       <c r="L6">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M6">
         <v>-1</v>
       </c>
       <c r="N6">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="O6">
         <v>-1</v>
@@ -1116,7 +1116,7 @@
         <v>-1</v>
       </c>
       <c r="G7">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H7">
         <v>-1</v>
@@ -1184,7 +1184,7 @@
         <v>-1</v>
       </c>
       <c r="G8">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H8">
         <v>-1</v>
@@ -1252,7 +1252,7 @@
         <v>-1</v>
       </c>
       <c r="G9">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H9">
         <v>-1</v>
@@ -1320,7 +1320,7 @@
         <v>-1</v>
       </c>
       <c r="G10">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H10">
         <v>-1</v>
@@ -1409,7 +1409,7 @@
         <v>-1</v>
       </c>
       <c r="N11">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="O11">
         <v>-1</v>
@@ -1471,7 +1471,7 @@
         <v>-1</v>
       </c>
       <c r="L12">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M12">
         <v>-1</v>
@@ -1518,7 +1518,7 @@
         <v>7</v>
       </c>
       <c r="E13">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F13">
         <v>-1</v>
@@ -1539,13 +1539,13 @@
         <v>-1</v>
       </c>
       <c r="L13">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M13">
         <v>-1</v>
       </c>
       <c r="N13">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="O13">
         <v>-1</v>
@@ -1592,7 +1592,7 @@
         <v>-1</v>
       </c>
       <c r="G14">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="H14">
         <v>-1</v>
@@ -1613,7 +1613,7 @@
         <v>-1</v>
       </c>
       <c r="N14">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="O14">
         <v>-1</v>
@@ -1660,7 +1660,7 @@
         <v>-1</v>
       </c>
       <c r="G15">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H15">
         <v>-1</v>
@@ -1728,7 +1728,7 @@
         <v>-1</v>
       </c>
       <c r="G16">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H16">
         <v>-1</v>
@@ -1749,7 +1749,7 @@
         <v>-1</v>
       </c>
       <c r="N16">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="O16">
         <v>-1</v>
@@ -1796,7 +1796,7 @@
         <v>7</v>
       </c>
       <c r="G17">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H17">
         <v>7</v>
@@ -1879,13 +1879,13 @@
         <v>6</v>
       </c>
       <c r="L18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M18">
         <v>-1</v>
       </c>
       <c r="N18">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="O18">
         <v>-1</v>
@@ -2000,7 +2000,7 @@
         <v>-1</v>
       </c>
       <c r="G20">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H20">
         <v>-1</v>
@@ -2136,7 +2136,7 @@
         <v>-1</v>
       </c>
       <c r="G22">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H22">
         <v>-1</v>
@@ -2198,13 +2198,13 @@
         <v>-1</v>
       </c>
       <c r="E23">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F23">
         <v>-1</v>
       </c>
       <c r="G23">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="H23">
         <v>-1</v>
@@ -2225,7 +2225,7 @@
         <v>-1</v>
       </c>
       <c r="N23">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="O23">
         <v>-1</v>
@@ -2287,13 +2287,13 @@
         <v>-1</v>
       </c>
       <c r="L24">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="M24">
         <v>-1</v>
       </c>
       <c r="N24">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="O24">
         <v>-1</v>
@@ -2340,7 +2340,7 @@
         <v>-1</v>
       </c>
       <c r="G25">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H25">
         <v>-1</v>
@@ -2408,7 +2408,7 @@
         <v>-1</v>
       </c>
       <c r="G26">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="H26">
         <v>-1</v>
@@ -2476,7 +2476,7 @@
         <v>-1</v>
       </c>
       <c r="G27">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H27">
         <v>-1</v>
@@ -2544,7 +2544,7 @@
         <v>8</v>
       </c>
       <c r="G28">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H28">
         <v>-1</v>
@@ -2559,7 +2559,7 @@
         <v>-1</v>
       </c>
       <c r="L28">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M28">
         <v>-1</v>
@@ -2612,7 +2612,7 @@
         <v>-1</v>
       </c>
       <c r="G29">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H29">
         <v>-1</v>
@@ -2680,7 +2680,7 @@
         <v>-1</v>
       </c>
       <c r="G30">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H30">
         <v>-1</v>
@@ -2748,7 +2748,7 @@
         <v>-1</v>
       </c>
       <c r="G31">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="H31">
         <v>-1</v>
@@ -2928,25 +2928,22 @@
         <v>29</v>
       </c>
       <c r="D2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E2">
+        <v>6</v>
+      </c>
+      <c r="F2">
         <v>0</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>20.69</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>8</v>
-      </c>
       <c r="I2">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="J2">
-        <v>79.31</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2960,30 +2957,27 @@
         <v>29</v>
       </c>
       <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
         <v>8</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>27.59</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>7.5</v>
-      </c>
       <c r="I3">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="J3">
-        <v>72.41</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>51</v>
@@ -2992,30 +2986,30 @@
         <v>29</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F4">
-        <v>34.48</v>
+        <v>13.79</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>24.14</v>
       </c>
       <c r="H4">
-        <v>7.7</v>
+        <v>8</v>
       </c>
       <c r="I4">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J4">
-        <v>65.52</v>
+        <v>86.20999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>52</v>
@@ -3024,30 +3018,30 @@
         <v>29</v>
       </c>
       <c r="D5">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="F5">
-        <v>37.93</v>
+        <v>17.24</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>82.76000000000001</v>
       </c>
       <c r="H5">
-        <v>7.1</v>
+        <v>7.4</v>
       </c>
       <c r="I5">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="J5">
-        <v>62.07</v>
+        <v>75.86</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
         <v>53</v>
@@ -3056,25 +3050,25 @@
         <v>29</v>
       </c>
       <c r="D6">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E6">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F6">
-        <v>37.93</v>
+        <v>27.59</v>
       </c>
       <c r="G6">
-        <v>62.07</v>
+        <v>72.41</v>
       </c>
       <c r="H6">
-        <v>5.6</v>
+        <v>8.5</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>72.41</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -3088,25 +3082,25 @@
         <v>29</v>
       </c>
       <c r="D7">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F7">
-        <v>48.28</v>
+        <v>37.93</v>
       </c>
       <c r="G7">
-        <v>10.34</v>
+        <v>20.69</v>
       </c>
       <c r="H7">
-        <v>6</v>
+        <v>6.6</v>
       </c>
       <c r="I7">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="J7">
-        <v>41.38</v>
+        <v>58.62</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -3120,25 +3114,25 @@
         <v>29</v>
       </c>
       <c r="D8">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F8">
-        <v>48.28</v>
+        <v>37.93</v>
       </c>
       <c r="G8">
-        <v>3.45</v>
+        <v>20.69</v>
       </c>
       <c r="H8">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="I8">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J8">
-        <v>48.28</v>
+        <v>58.62</v>
       </c>
     </row>
   </sheetData>
@@ -3148,7 +3142,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F175"/>
+  <dimension ref="A1:F161"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3192,10 +3186,10 @@
         <v>107</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3212,10 +3206,10 @@
         <v>107</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3232,10 +3226,10 @@
         <v>107</v>
       </c>
       <c r="E4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3252,10 +3246,10 @@
         <v>107</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3272,10 +3266,10 @@
         <v>107</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3292,10 +3286,10 @@
         <v>107</v>
       </c>
       <c r="E7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3312,10 +3306,10 @@
         <v>107</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3332,7 +3326,7 @@
         <v>108</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F9" t="s">
         <v>50</v>
@@ -3352,10 +3346,10 @@
         <v>108</v>
       </c>
       <c r="E10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F10" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3372,7 +3366,7 @@
         <v>108</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F11" t="s">
         <v>50</v>
@@ -3395,7 +3389,7 @@
         <v>9</v>
       </c>
       <c r="F12" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3415,7 +3409,7 @@
         <v>5</v>
       </c>
       <c r="F13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -3432,10 +3426,10 @@
         <v>108</v>
       </c>
       <c r="E14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F14" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -3452,10 +3446,10 @@
         <v>109</v>
       </c>
       <c r="E15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -3472,10 +3466,10 @@
         <v>109</v>
       </c>
       <c r="E16" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -3492,10 +3486,10 @@
         <v>109</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F17" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -3512,47 +3506,47 @@
         <v>109</v>
       </c>
       <c r="E18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F18" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>19330051920046</v>
+        <v>19330051920051</v>
       </c>
       <c r="B19" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C19" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="D19" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E19" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F19" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>19330051920046</v>
+        <v>19330051920051</v>
       </c>
       <c r="B20" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C20" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="D20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E20" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F20" t="s">
         <v>50</v>
@@ -3572,10 +3566,10 @@
         <v>110</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F21" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -3592,10 +3586,10 @@
         <v>110</v>
       </c>
       <c r="E22" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F22" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -3612,10 +3606,10 @@
         <v>110</v>
       </c>
       <c r="E23" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -3632,10 +3626,10 @@
         <v>110</v>
       </c>
       <c r="E24" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F24" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -3652,50 +3646,50 @@
         <v>110</v>
       </c>
       <c r="E25" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F25" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>19330051920051</v>
+        <v>19330051920049</v>
       </c>
       <c r="B26" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C26" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="D26" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E26" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F26" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>19330051920051</v>
+        <v>19330051920049</v>
       </c>
       <c r="B27" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C27" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="D27" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E27" t="s">
         <v>9</v>
       </c>
       <c r="F27" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -3732,10 +3726,10 @@
         <v>111</v>
       </c>
       <c r="E29" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -3755,7 +3749,7 @@
         <v>6</v>
       </c>
       <c r="F30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -3772,7 +3766,7 @@
         <v>111</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F31" t="s">
         <v>50</v>
@@ -3792,47 +3786,47 @@
         <v>111</v>
       </c>
       <c r="E32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F32" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>19330051920049</v>
+        <v>19330051920052</v>
       </c>
       <c r="B33" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C33" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D33" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E33" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F33" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>19330051920049</v>
+        <v>19330051920052</v>
       </c>
       <c r="B34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C34" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D34" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E34" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F34" t="s">
         <v>51</v>
@@ -3852,10 +3846,10 @@
         <v>112</v>
       </c>
       <c r="E35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F35" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -3872,10 +3866,10 @@
         <v>112</v>
       </c>
       <c r="E36" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -3892,10 +3886,10 @@
         <v>112</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F37" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -3912,10 +3906,10 @@
         <v>112</v>
       </c>
       <c r="E38" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F38" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -3932,7 +3926,7 @@
         <v>112</v>
       </c>
       <c r="E39" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F39" t="s">
         <v>50</v>
@@ -3940,42 +3934,42 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>19330051920052</v>
+        <v>19330051920053</v>
       </c>
       <c r="B40" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C40" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D40" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E40" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F40" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>19330051920052</v>
+        <v>19330051920053</v>
       </c>
       <c r="B41" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C41" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D41" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E41" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -3992,7 +3986,7 @@
         <v>113</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F42" t="s">
         <v>50</v>
@@ -4000,16 +3994,16 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>19330051920053</v>
+        <v>19330051920055</v>
       </c>
       <c r="B43" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C43" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D43" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E43" t="s">
         <v>8</v>
@@ -4020,42 +4014,42 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>19330051920053</v>
+        <v>19330051920055</v>
       </c>
       <c r="B44" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C44" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D44" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E44" t="s">
         <v>9</v>
       </c>
       <c r="F44" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>19330051920053</v>
+        <v>19330051920055</v>
       </c>
       <c r="B45" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C45" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D45" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E45" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F45" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -4095,24 +4089,24 @@
         <v>5</v>
       </c>
       <c r="F47" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>19330051920055</v>
+        <v>19330051920057</v>
       </c>
       <c r="B48" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C48" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D48" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E48" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F48" t="s">
         <v>51</v>
@@ -4120,19 +4114,19 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>19330051920055</v>
+        <v>19330051920057</v>
       </c>
       <c r="B49" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C49" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D49" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E49" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F49" t="s">
         <v>50</v>
@@ -4140,59 +4134,59 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>19330051920055</v>
+        <v>19330051920057</v>
       </c>
       <c r="B50" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C50" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D50" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F50" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>19330051920055</v>
+        <v>19330051920056</v>
       </c>
       <c r="B51" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C51" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D51" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E51" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F51" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>19330051920057</v>
+        <v>19330051920056</v>
       </c>
       <c r="B52" t="s">
         <v>68</v>
       </c>
       <c r="C52" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D52" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E52" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F52" t="s">
         <v>50</v>
@@ -4200,39 +4194,39 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>19330051920057</v>
+        <v>19330051920056</v>
       </c>
       <c r="B53" t="s">
         <v>68</v>
       </c>
       <c r="C53" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D53" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E53" t="s">
         <v>6</v>
       </c>
       <c r="F53" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>19330051920057</v>
+        <v>18330051920022</v>
       </c>
       <c r="B54" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C54" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D54" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E54" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F54" t="s">
         <v>51</v>
@@ -4240,116 +4234,116 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>19330051920057</v>
+        <v>18330051920022</v>
       </c>
       <c r="B55" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C55" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D55" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F55" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>19330051920056</v>
+        <v>18330051920022</v>
       </c>
       <c r="B56" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C56" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="D56" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E56" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>19330051920056</v>
+        <v>18330051920022</v>
       </c>
       <c r="B57" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C57" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="D57" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F57" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>19330051920056</v>
+        <v>18330051920022</v>
       </c>
       <c r="B58" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C58" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="D58" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E58" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F58" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>19330051920056</v>
+        <v>19330051920058</v>
       </c>
       <c r="B59" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C59" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="D59" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>19330051920056</v>
+        <v>19330051920058</v>
       </c>
       <c r="B60" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C60" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="D60" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E60" t="s">
         <v>8</v>
@@ -4360,116 +4354,116 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>18330051920022</v>
+        <v>19330051920060</v>
       </c>
       <c r="B61" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C61" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D61" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E61" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>18330051920022</v>
+        <v>19330051920060</v>
       </c>
       <c r="B62" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C62" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D62" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F62" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>18330051920022</v>
+        <v>19330051920060</v>
       </c>
       <c r="B63" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C63" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D63" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E63" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F63" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>18330051920022</v>
+        <v>19330051920060</v>
       </c>
       <c r="B64" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C64" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D64" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E64" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F64" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>18330051920022</v>
+        <v>19330051920059</v>
       </c>
       <c r="B65" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C65" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="D65" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E65" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>19330051920058</v>
+        <v>19330051920059</v>
       </c>
       <c r="B66" t="s">
         <v>70</v>
       </c>
       <c r="C66" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="D66" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E66" t="s">
         <v>8</v>
@@ -4480,16 +4474,16 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>19330051920058</v>
+        <v>19330051920061</v>
       </c>
       <c r="B67" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C67" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="D67" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E67" t="s">
         <v>10</v>
@@ -4500,39 +4494,39 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>19330051920058</v>
+        <v>19330051920061</v>
       </c>
       <c r="B68" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C68" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="D68" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E68" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F68" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>19330051920060</v>
+        <v>19330051920061</v>
       </c>
       <c r="B69" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C69" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D69" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F69" t="s">
         <v>50</v>
@@ -4540,99 +4534,99 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>19330051920060</v>
+        <v>19330051920061</v>
       </c>
       <c r="B70" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C70" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D70" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E70" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F70" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>19330051920060</v>
+        <v>19330051920061</v>
       </c>
       <c r="B71" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C71" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D71" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F71" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>19330051920060</v>
+        <v>19330051920061</v>
       </c>
       <c r="B72" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C72" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D72" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E72" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F72" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>19330051920059</v>
+        <v>19330051920061</v>
       </c>
       <c r="B73" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C73" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="D73" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E73" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F73" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>19330051920059</v>
+        <v>19330051920050</v>
       </c>
       <c r="B74" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C74" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D74" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E74" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F74" t="s">
         <v>51</v>
@@ -4640,16 +4634,16 @@
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>19330051920059</v>
+        <v>19330051920050</v>
       </c>
       <c r="B75" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C75" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D75" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E75" t="s">
         <v>8</v>
@@ -4660,96 +4654,96 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>19330051920059</v>
+        <v>19330051920050</v>
       </c>
       <c r="B76" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C76" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D76" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F76" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>19330051920061</v>
+        <v>19330051920050</v>
       </c>
       <c r="B77" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C77" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="D77" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E77" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F77" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>19330051920061</v>
+        <v>19330051920050</v>
       </c>
       <c r="B78" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C78" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="D78" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F78" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>19330051920061</v>
+        <v>19330051920050</v>
       </c>
       <c r="B79" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C79" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="D79" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>19330051920061</v>
+        <v>19330051920050</v>
       </c>
       <c r="B80" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C80" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="D80" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E80" t="s">
         <v>7</v>
@@ -4760,19 +4754,19 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>19330051920061</v>
+        <v>19330051920064</v>
       </c>
       <c r="B81" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C81" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D81" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E81" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F81" t="s">
         <v>53</v>
@@ -4780,19 +4774,19 @@
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>19330051920061</v>
+        <v>19330051920064</v>
       </c>
       <c r="B82" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C82" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D82" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E82" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F82" t="s">
         <v>52</v>
@@ -4800,136 +4794,136 @@
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>19330051920061</v>
+        <v>19330051920064</v>
       </c>
       <c r="B83" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C83" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D83" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E83" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F83" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>19330051920050</v>
+        <v>19330051920064</v>
       </c>
       <c r="B84" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C84" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="D84" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E84" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F84" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>19330051920050</v>
+        <v>19330051920064</v>
       </c>
       <c r="B85" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C85" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="D85" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E85" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F85" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>19330051920050</v>
+        <v>19330051920064</v>
       </c>
       <c r="B86" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C86" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="D86" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E86" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F86" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>19330051920050</v>
+        <v>19330051920064</v>
       </c>
       <c r="B87" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C87" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="D87" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E87" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
-        <v>19330051920050</v>
+        <v>19330051920067</v>
       </c>
       <c r="B88" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C88" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="D88" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E88" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F88" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
-        <v>19330051920050</v>
+        <v>19330051920067</v>
       </c>
       <c r="B89" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C89" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="D89" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E89" t="s">
         <v>10</v>
@@ -4940,19 +4934,19 @@
     </row>
     <row r="90" spans="1:6">
       <c r="A90">
-        <v>19330051920050</v>
+        <v>19330051920067</v>
       </c>
       <c r="B90" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C90" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="D90" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E90" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F90" t="s">
         <v>51</v>
@@ -4960,299 +4954,299 @@
     </row>
     <row r="91" spans="1:6">
       <c r="A91">
-        <v>19330051920064</v>
+        <v>19330051920067</v>
       </c>
       <c r="B91" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C91" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D91" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E91" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F91" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
-        <v>19330051920064</v>
+        <v>19330051920067</v>
       </c>
       <c r="B92" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C92" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D92" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F92" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93">
-        <v>19330051920064</v>
+        <v>19330051920067</v>
       </c>
       <c r="B93" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C93" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D93" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E93" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F93" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
-        <v>19330051920064</v>
+        <v>19330051920068</v>
       </c>
       <c r="B94" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C94" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D94" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E94" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95">
-        <v>19330051920064</v>
+        <v>19330051920068</v>
       </c>
       <c r="B95" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C95" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D95" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E95" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F95" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96">
-        <v>19330051920064</v>
+        <v>19330051920068</v>
       </c>
       <c r="B96" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C96" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D96" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F96" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97">
-        <v>19330051920064</v>
+        <v>19330051920068</v>
       </c>
       <c r="B97" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C97" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D97" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F97" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98">
-        <v>19330051920067</v>
+        <v>19330051920068</v>
       </c>
       <c r="B98" t="s">
         <v>74</v>
       </c>
       <c r="C98" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D98" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E98" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F98" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99">
-        <v>19330051920067</v>
+        <v>19330051920068</v>
       </c>
       <c r="B99" t="s">
         <v>74</v>
       </c>
       <c r="C99" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D99" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E99" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F99" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100">
-        <v>19330051920067</v>
+        <v>19330051920068</v>
       </c>
       <c r="B100" t="s">
         <v>74</v>
       </c>
       <c r="C100" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D100" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E100" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F100" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101">
-        <v>19330051920067</v>
+        <v>19330051920069</v>
       </c>
       <c r="B101" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C101" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D101" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F101" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102">
-        <v>19330051920067</v>
+        <v>19330051920069</v>
       </c>
       <c r="B102" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C102" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D102" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E102" t="s">
         <v>5</v>
       </c>
       <c r="F102" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103">
-        <v>19330051920067</v>
+        <v>19330051920069</v>
       </c>
       <c r="B103" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C103" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D103" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E103" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F103" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104">
-        <v>19330051920068</v>
+        <v>19330051920069</v>
       </c>
       <c r="B104" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C104" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D104" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E104" t="s">
         <v>6</v>
       </c>
       <c r="F104" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105">
-        <v>19330051920068</v>
+        <v>19330051920069</v>
       </c>
       <c r="B105" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C105" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D105" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E105" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F105" t="s">
         <v>50</v>
@@ -5260,16 +5254,16 @@
     </row>
     <row r="106" spans="1:6">
       <c r="A106">
-        <v>19330051920068</v>
+        <v>19330051920069</v>
       </c>
       <c r="B106" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C106" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D106" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E106" t="s">
         <v>4</v>
@@ -5280,319 +5274,319 @@
     </row>
     <row r="107" spans="1:6">
       <c r="A107">
-        <v>19330051920068</v>
+        <v>19330051920071</v>
       </c>
       <c r="B107" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C107" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D107" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E107" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108">
-        <v>19330051920068</v>
+        <v>19330051920071</v>
       </c>
       <c r="B108" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C108" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D108" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F108" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109">
-        <v>19330051920068</v>
+        <v>19330051920071</v>
       </c>
       <c r="B109" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C109" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D109" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E109" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F109" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110">
-        <v>19330051920068</v>
+        <v>19330051920071</v>
       </c>
       <c r="B110" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C110" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D110" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E110" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F110" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111">
-        <v>19330051920069</v>
+        <v>19330051920071</v>
       </c>
       <c r="B111" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C111" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D111" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E111" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F111" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112">
-        <v>19330051920069</v>
+        <v>18330051920074</v>
       </c>
       <c r="B112" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C112" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D112" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E112" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F112" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113">
-        <v>19330051920069</v>
+        <v>18330051920074</v>
       </c>
       <c r="B113" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C113" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D113" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F113" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114">
-        <v>19330051920069</v>
+        <v>18330051920074</v>
       </c>
       <c r="B114" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C114" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D114" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E114" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F114" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115">
-        <v>19330051920069</v>
+        <v>18330051920074</v>
       </c>
       <c r="B115" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C115" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D115" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E115" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F115" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116">
-        <v>19330051920069</v>
+        <v>18330051920074</v>
       </c>
       <c r="B116" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C116" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D116" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F116" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117">
-        <v>19330051920069</v>
+        <v>18330051920074</v>
       </c>
       <c r="B117" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C117" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D117" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E117" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118">
-        <v>19330051920071</v>
+        <v>18330051920074</v>
       </c>
       <c r="B118" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C118" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D118" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E118" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F118" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119">
-        <v>19330051920071</v>
+        <v>19330051920074</v>
       </c>
       <c r="B119" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C119" t="s">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="D119" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E119" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F119" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120">
-        <v>19330051920071</v>
+        <v>19330051920074</v>
       </c>
       <c r="B120" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C120" t="s">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="D120" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F120" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121">
-        <v>19330051920071</v>
+        <v>19330051920074</v>
       </c>
       <c r="B121" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C121" t="s">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="D121" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E121" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122">
-        <v>19330051920071</v>
+        <v>19330051920074</v>
       </c>
       <c r="B122" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C122" t="s">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="D122" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E122" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F122" t="s">
         <v>53</v>
@@ -5600,219 +5594,219 @@
     </row>
     <row r="123" spans="1:6">
       <c r="A123">
-        <v>19330051920071</v>
+        <v>19330051920074</v>
       </c>
       <c r="B123" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C123" t="s">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="D123" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F123" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124">
-        <v>19330051920071</v>
+        <v>19330051920075</v>
       </c>
       <c r="B124" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C124" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D124" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125">
-        <v>18330051920074</v>
+        <v>19330051920075</v>
       </c>
       <c r="B125" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C125" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D125" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E125" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F125" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126">
-        <v>18330051920074</v>
+        <v>19330051920075</v>
       </c>
       <c r="B126" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C126" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D126" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E126" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F126" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127">
-        <v>18330051920074</v>
+        <v>19330051920075</v>
       </c>
       <c r="B127" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C127" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D127" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E127" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F127" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="128" spans="1:6">
       <c r="A128">
-        <v>18330051920074</v>
+        <v>19330051920075</v>
       </c>
       <c r="B128" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C128" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D128" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E128" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F128" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="129" spans="1:6">
       <c r="A129">
-        <v>18330051920074</v>
+        <v>19330051920075</v>
       </c>
       <c r="B129" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C129" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D129" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F129" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="130" spans="1:6">
       <c r="A130">
-        <v>18330051920074</v>
+        <v>19330051920418</v>
       </c>
       <c r="B130" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C130" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D130" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E130" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F130" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="131" spans="1:6">
       <c r="A131">
-        <v>18330051920074</v>
+        <v>19330051920418</v>
       </c>
       <c r="B131" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C131" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D131" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E131" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F131" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="132" spans="1:6">
       <c r="A132">
-        <v>19330051920074</v>
+        <v>19330051920418</v>
       </c>
       <c r="B132" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C132" t="s">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="D132" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="133" spans="1:6">
       <c r="A133">
-        <v>19330051920074</v>
+        <v>19330051920418</v>
       </c>
       <c r="B133" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C133" t="s">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="D133" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E133" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F133" t="s">
         <v>51</v>
@@ -5820,56 +5814,56 @@
     </row>
     <row r="134" spans="1:6">
       <c r="A134">
-        <v>19330051920074</v>
+        <v>19330051920418</v>
       </c>
       <c r="B134" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C134" t="s">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="D134" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E134" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F134" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="135" spans="1:6">
       <c r="A135">
-        <v>19330051920074</v>
+        <v>19330051920418</v>
       </c>
       <c r="B135" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C135" t="s">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="D135" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E135" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F135" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="136" spans="1:6">
       <c r="A136">
-        <v>19330051920074</v>
+        <v>19330051920076</v>
       </c>
       <c r="B136" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C136" t="s">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="D136" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="E136" t="s">
         <v>10</v>
@@ -5880,19 +5874,19 @@
     </row>
     <row r="137" spans="1:6">
       <c r="A137">
-        <v>19330051920075</v>
+        <v>19330051920076</v>
       </c>
       <c r="B137" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C137" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D137" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="E137" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F137" t="s">
         <v>53</v>
@@ -5900,39 +5894,39 @@
     </row>
     <row r="138" spans="1:6">
       <c r="A138">
-        <v>19330051920075</v>
+        <v>19330051920076</v>
       </c>
       <c r="B138" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C138" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D138" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="E138" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F138" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="139" spans="1:6">
       <c r="A139">
-        <v>19330051920075</v>
+        <v>19330051920076</v>
       </c>
       <c r="B139" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C139" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D139" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F139" t="s">
         <v>50</v>
@@ -5940,36 +5934,36 @@
     </row>
     <row r="140" spans="1:6">
       <c r="A140">
-        <v>19330051920075</v>
+        <v>19330051920076</v>
       </c>
       <c r="B140" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C140" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D140" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="E140" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F140" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="141" spans="1:6">
       <c r="A141">
-        <v>19330051920075</v>
+        <v>19330051920076</v>
       </c>
       <c r="B141" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C141" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D141" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="E141" t="s">
         <v>7</v>
@@ -5980,16 +5974,16 @@
     </row>
     <row r="142" spans="1:6">
       <c r="A142">
-        <v>19330051920075</v>
+        <v>18330051920029</v>
       </c>
       <c r="B142" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C142" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D142" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E142" t="s">
         <v>8</v>
@@ -6000,56 +5994,56 @@
     </row>
     <row r="143" spans="1:6">
       <c r="A143">
-        <v>19330051920418</v>
+        <v>18330051920029</v>
       </c>
       <c r="B143" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C143" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D143" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E143" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F143" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="144" spans="1:6">
       <c r="A144">
-        <v>19330051920418</v>
+        <v>18330051920029</v>
       </c>
       <c r="B144" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C144" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D144" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E144" t="s">
         <v>6</v>
       </c>
       <c r="F144" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="145" spans="1:6">
       <c r="A145">
-        <v>19330051920418</v>
+        <v>18330051920029</v>
       </c>
       <c r="B145" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C145" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D145" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E145" t="s">
         <v>10</v>
@@ -6060,16 +6054,16 @@
     </row>
     <row r="146" spans="1:6">
       <c r="A146">
-        <v>19330051920418</v>
+        <v>18330051920029</v>
       </c>
       <c r="B146" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C146" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D146" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E146" t="s">
         <v>7</v>
@@ -6080,119 +6074,119 @@
     </row>
     <row r="147" spans="1:6">
       <c r="A147">
-        <v>19330051920418</v>
+        <v>18330051920029</v>
       </c>
       <c r="B147" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C147" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D147" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E147" t="s">
         <v>5</v>
       </c>
       <c r="F147" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="148" spans="1:6">
       <c r="A148">
-        <v>19330051920418</v>
+        <v>18330051920029</v>
       </c>
       <c r="B148" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C148" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D148" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F148" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="149" spans="1:6">
       <c r="A149">
-        <v>19330051920418</v>
+        <v>19330051920079</v>
       </c>
       <c r="B149" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C149" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D149" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E149" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F149" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="150" spans="1:6">
       <c r="A150">
-        <v>19330051920076</v>
+        <v>19330051920079</v>
       </c>
       <c r="B150" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C150" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D150" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="E150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F150" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="151" spans="1:6">
       <c r="A151">
-        <v>19330051920076</v>
+        <v>19330051920079</v>
       </c>
       <c r="B151" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C151" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D151" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="E151" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F151" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="152" spans="1:6">
       <c r="A152">
-        <v>19330051920076</v>
+        <v>19330051920079</v>
       </c>
       <c r="B152" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C152" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D152" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="E152" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F152" t="s">
         <v>52</v>
@@ -6200,36 +6194,36 @@
     </row>
     <row r="153" spans="1:6">
       <c r="A153">
-        <v>19330051920076</v>
+        <v>19330051920079</v>
       </c>
       <c r="B153" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C153" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D153" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="E153" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F153" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="154" spans="1:6">
       <c r="A154">
-        <v>19330051920076</v>
+        <v>19330051920079</v>
       </c>
       <c r="B154" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C154" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D154" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="E154" t="s">
         <v>10</v>
@@ -6240,422 +6234,142 @@
     </row>
     <row r="155" spans="1:6">
       <c r="A155">
-        <v>19330051920076</v>
+        <v>19330051920079</v>
       </c>
       <c r="B155" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C155" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D155" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="E155" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F155" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="156" spans="1:6">
       <c r="A156">
-        <v>18330051920029</v>
+        <v>19330051920081</v>
       </c>
       <c r="B156" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C156" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="D156" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E156" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F156" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="157" spans="1:6">
       <c r="A157">
-        <v>18330051920029</v>
+        <v>19330051920081</v>
       </c>
       <c r="B157" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C157" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="D157" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="158" spans="1:6">
       <c r="A158">
-        <v>18330051920029</v>
+        <v>19330051920081</v>
       </c>
       <c r="B158" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C158" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="D158" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E158" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F158" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="159" spans="1:6">
       <c r="A159">
-        <v>18330051920029</v>
+        <v>19330051920081</v>
       </c>
       <c r="B159" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C159" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="D159" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E159" t="s">
         <v>6</v>
       </c>
       <c r="F159" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="160" spans="1:6">
       <c r="A160">
-        <v>18330051920029</v>
+        <v>19330051920081</v>
       </c>
       <c r="B160" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C160" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="D160" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E160" t="s">
         <v>5</v>
       </c>
       <c r="F160" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="161" spans="1:6">
       <c r="A161">
-        <v>18330051920029</v>
+        <v>19330051920081</v>
       </c>
       <c r="B161" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C161" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="D161" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E161" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F161" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6">
-      <c r="A162">
-        <v>18330051920029</v>
-      </c>
-      <c r="B162" t="s">
-        <v>82</v>
-      </c>
-      <c r="C162" t="s">
-        <v>105</v>
-      </c>
-      <c r="D162" t="s">
-        <v>132</v>
-      </c>
-      <c r="E162" t="s">
-        <v>8</v>
-      </c>
-      <c r="F162" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6">
-      <c r="A163">
-        <v>19330051920079</v>
-      </c>
-      <c r="B163" t="s">
-        <v>83</v>
-      </c>
-      <c r="C163" t="s">
-        <v>106</v>
-      </c>
-      <c r="D163" t="s">
-        <v>133</v>
-      </c>
-      <c r="E163" t="s">
-        <v>5</v>
-      </c>
-      <c r="F163" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6">
-      <c r="A164">
-        <v>19330051920079</v>
-      </c>
-      <c r="B164" t="s">
-        <v>83</v>
-      </c>
-      <c r="C164" t="s">
-        <v>106</v>
-      </c>
-      <c r="D164" t="s">
-        <v>133</v>
-      </c>
-      <c r="E164" t="s">
-        <v>10</v>
-      </c>
-      <c r="F164" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6">
-      <c r="A165">
-        <v>19330051920079</v>
-      </c>
-      <c r="B165" t="s">
-        <v>83</v>
-      </c>
-      <c r="C165" t="s">
-        <v>106</v>
-      </c>
-      <c r="D165" t="s">
-        <v>133</v>
-      </c>
-      <c r="E165" t="s">
-        <v>4</v>
-      </c>
-      <c r="F165" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6">
-      <c r="A166">
-        <v>19330051920079</v>
-      </c>
-      <c r="B166" t="s">
-        <v>83</v>
-      </c>
-      <c r="C166" t="s">
-        <v>106</v>
-      </c>
-      <c r="D166" t="s">
-        <v>133</v>
-      </c>
-      <c r="E166" t="s">
-        <v>6</v>
-      </c>
-      <c r="F166" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6">
-      <c r="A167">
-        <v>19330051920079</v>
-      </c>
-      <c r="B167" t="s">
-        <v>83</v>
-      </c>
-      <c r="C167" t="s">
-        <v>106</v>
-      </c>
-      <c r="D167" t="s">
-        <v>133</v>
-      </c>
-      <c r="E167" t="s">
-        <v>9</v>
-      </c>
-      <c r="F167" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6">
-      <c r="A168">
-        <v>19330051920079</v>
-      </c>
-      <c r="B168" t="s">
-        <v>83</v>
-      </c>
-      <c r="C168" t="s">
-        <v>106</v>
-      </c>
-      <c r="D168" t="s">
-        <v>133</v>
-      </c>
-      <c r="E168" t="s">
-        <v>7</v>
-      </c>
-      <c r="F168" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6">
-      <c r="A169">
-        <v>19330051920079</v>
-      </c>
-      <c r="B169" t="s">
-        <v>83</v>
-      </c>
-      <c r="C169" t="s">
-        <v>106</v>
-      </c>
-      <c r="D169" t="s">
-        <v>133</v>
-      </c>
-      <c r="E169" t="s">
-        <v>8</v>
-      </c>
-      <c r="F169" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6">
-      <c r="A170">
-        <v>19330051920081</v>
-      </c>
-      <c r="B170" t="s">
-        <v>84</v>
-      </c>
-      <c r="C170" t="s">
-        <v>79</v>
-      </c>
-      <c r="D170" t="s">
-        <v>134</v>
-      </c>
-      <c r="E170" t="s">
-        <v>4</v>
-      </c>
-      <c r="F170" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6">
-      <c r="A171">
-        <v>19330051920081</v>
-      </c>
-      <c r="B171" t="s">
-        <v>84</v>
-      </c>
-      <c r="C171" t="s">
-        <v>79</v>
-      </c>
-      <c r="D171" t="s">
-        <v>134</v>
-      </c>
-      <c r="E171" t="s">
-        <v>8</v>
-      </c>
-      <c r="F171" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6">
-      <c r="A172">
-        <v>19330051920081</v>
-      </c>
-      <c r="B172" t="s">
-        <v>84</v>
-      </c>
-      <c r="C172" t="s">
-        <v>79</v>
-      </c>
-      <c r="D172" t="s">
-        <v>134</v>
-      </c>
-      <c r="E172" t="s">
-        <v>6</v>
-      </c>
-      <c r="F172" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6">
-      <c r="A173">
-        <v>19330051920081</v>
-      </c>
-      <c r="B173" t="s">
-        <v>84</v>
-      </c>
-      <c r="C173" t="s">
-        <v>79</v>
-      </c>
-      <c r="D173" t="s">
-        <v>134</v>
-      </c>
-      <c r="E173" t="s">
-        <v>5</v>
-      </c>
-      <c r="F173" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6">
-      <c r="A174">
-        <v>19330051920081</v>
-      </c>
-      <c r="B174" t="s">
-        <v>84</v>
-      </c>
-      <c r="C174" t="s">
-        <v>79</v>
-      </c>
-      <c r="D174" t="s">
-        <v>134</v>
-      </c>
-      <c r="E174" t="s">
-        <v>9</v>
-      </c>
-      <c r="F174" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6">
-      <c r="A175">
-        <v>19330051920081</v>
-      </c>
-      <c r="B175" t="s">
-        <v>84</v>
-      </c>
-      <c r="C175" t="s">
-        <v>79</v>
-      </c>
-      <c r="D175" t="s">
-        <v>134</v>
-      </c>
-      <c r="E175" t="s">
-        <v>10</v>
-      </c>
-      <c r="F175" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -6706,7 +6420,7 @@
         <v>107</v>
       </c>
       <c r="E2">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -6723,7 +6437,7 @@
         <v>110</v>
       </c>
       <c r="E3">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -6740,7 +6454,7 @@
         <v>111</v>
       </c>
       <c r="E4">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6757,415 +6471,415 @@
         <v>112</v>
       </c>
       <c r="E5">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>19330051920068</v>
+        <v>19330051920061</v>
       </c>
       <c r="B6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D6" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E6">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>19330051920069</v>
+        <v>19330051920050</v>
       </c>
       <c r="B7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C7" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="D7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E7">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>18330051920029</v>
+        <v>19330051920064</v>
       </c>
       <c r="B8" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C8" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="D8" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="E8">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>19330051920050</v>
+        <v>19330051920068</v>
       </c>
       <c r="B9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C9" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="D9" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E9">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>19330051920064</v>
+        <v>18330051920074</v>
       </c>
       <c r="B10" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C10" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D10" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E10">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>18330051920074</v>
+        <v>18330051920029</v>
       </c>
       <c r="B11" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C11" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D11" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E11">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>19330051920075</v>
+        <v>19330051920079</v>
       </c>
       <c r="B12" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C12" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D12" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E12">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>19330051920076</v>
+        <v>19330051920045</v>
       </c>
       <c r="B13" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="C13" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="D13" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="E13">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
-        <v>19330051920079</v>
+        <v>19330051920067</v>
       </c>
       <c r="B14" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C14" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D14" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="E14">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>18330051920022</v>
+        <v>19330051920069</v>
       </c>
       <c r="B15" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C15" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D15" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="E15">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>19330051920061</v>
+        <v>19330051920075</v>
       </c>
       <c r="B16" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="C16" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D16" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="E16">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>19330051920074</v>
+        <v>19330051920418</v>
       </c>
       <c r="B17" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C17" t="s">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="D17" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E17">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>19330051920081</v>
+        <v>19330051920076</v>
       </c>
       <c r="B18" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C18" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="D18" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="E18">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>19330051920057</v>
+        <v>19330051920081</v>
       </c>
       <c r="B19" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="C19" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="D19" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>19330051920058</v>
+        <v>19330051920055</v>
       </c>
       <c r="B20" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C20" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="D20" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>19330051920067</v>
+        <v>18330051920022</v>
       </c>
       <c r="B21" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C21" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D21" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
-        <v>19330051920045</v>
+        <v>19330051920071</v>
       </c>
       <c r="B22" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="C22" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="D22" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>19330051920055</v>
+        <v>19330051920074</v>
       </c>
       <c r="B23" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="C23" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="D23" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <v>19330051920056</v>
+        <v>19330051920046</v>
       </c>
       <c r="B24" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C24" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D24" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <v>19330051920418</v>
+        <v>19330051920060</v>
       </c>
       <c r="B25" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C25" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="D25" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>19330051920060</v>
+        <v>19330051920053</v>
       </c>
       <c r="B26" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C26" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D26" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>19330051920071</v>
+        <v>19330051920057</v>
       </c>
       <c r="B27" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C27" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="D27" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>19330051920046</v>
+        <v>19330051920056</v>
       </c>
       <c r="B28" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C28" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D28" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <v>19330051920053</v>
+        <v>19330051920058</v>
       </c>
       <c r="B29" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C29" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="D29" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -7182,7 +6896,7 @@
         <v>120</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -7192,7 +6906,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7222,7 +6936,99 @@
         <v>41</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>19330051920058</v>
+      </c>
+      <c r="B2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>19330051920058</v>
+      </c>
+      <c r="B3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>19330051920059</v>
+      </c>
+      <c r="B4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>19330051920059</v>
+      </c>
+      <c r="B5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/grupos/4AEV - Estadisticos 2020.xlsx
+++ b/grupos/4AEV - Estadisticos 2020.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="135">
   <si>
     <t>Materia</t>
   </si>
@@ -170,24 +170,24 @@
     <t>Por_Blancos</t>
   </si>
   <si>
+    <t>Polanco Domínguez Rosa María</t>
+  </si>
+  <si>
+    <t>Camarillo Aburto Raymundo</t>
+  </si>
+  <si>
+    <t>Zarate Amezcua Eladio Jorge</t>
+  </si>
+  <si>
+    <t>Ortega Valle Manuel</t>
+  </si>
+  <si>
+    <t>González Nuñez Veronica</t>
+  </si>
+  <si>
     <t>Silva Villegas Mario</t>
   </si>
   <si>
-    <t>Polanco Domínguez Rosa María</t>
-  </si>
-  <si>
-    <t>Camarillo Aburto Raymundo</t>
-  </si>
-  <si>
-    <t>Zarate Amezcua Eladio Jorge</t>
-  </si>
-  <si>
-    <t>Ortega Valle Manuel</t>
-  </si>
-  <si>
-    <t>González Nuñez Veronica</t>
-  </si>
-  <si>
     <t>NC</t>
   </si>
   <si>
@@ -374,55 +374,55 @@
     <t>ISAAC ALESSANDRO</t>
   </si>
   <si>
+    <t>ELIUTH ADELFO</t>
+  </si>
+  <si>
+    <t>JOSE ANTONIO</t>
+  </si>
+  <si>
+    <t>SALOMON</t>
+  </si>
+  <si>
+    <t>VICTOR SAUL</t>
+  </si>
+  <si>
+    <t>ALEXIS YAIR</t>
+  </si>
+  <si>
+    <t>EMMANUEL</t>
+  </si>
+  <si>
+    <t>JOSE DANIEL</t>
+  </si>
+  <si>
+    <t>JUAN EFRAIN</t>
+  </si>
+  <si>
+    <t>JUAN CARLOS</t>
+  </si>
+  <si>
+    <t>IVAN</t>
+  </si>
+  <si>
+    <t>ARTURO</t>
+  </si>
+  <si>
+    <t>MARTI NEFTALI</t>
+  </si>
+  <si>
+    <t>AGUSTIN</t>
+  </si>
+  <si>
+    <t>SAUL</t>
+  </si>
+  <si>
+    <t>OSVALDO</t>
+  </si>
+  <si>
+    <t>MONSERRAT</t>
+  </si>
+  <si>
     <t>ALEXIS ARMANDO</t>
-  </si>
-  <si>
-    <t>ELIUTH ADELFO</t>
-  </si>
-  <si>
-    <t>AGUSTIN</t>
-  </si>
-  <si>
-    <t>JOSE ANTONIO</t>
-  </si>
-  <si>
-    <t>SALOMON</t>
-  </si>
-  <si>
-    <t>VICTOR SAUL</t>
-  </si>
-  <si>
-    <t>ALEXIS YAIR</t>
-  </si>
-  <si>
-    <t>EMMANUEL</t>
-  </si>
-  <si>
-    <t>JOSE DANIEL</t>
-  </si>
-  <si>
-    <t>JUAN EFRAIN</t>
-  </si>
-  <si>
-    <t>JUAN CARLOS</t>
-  </si>
-  <si>
-    <t>IVAN</t>
-  </si>
-  <si>
-    <t>ARTURO</t>
-  </si>
-  <si>
-    <t>MARTI NEFTALI</t>
-  </si>
-  <si>
-    <t>SAUL</t>
-  </si>
-  <si>
-    <t>OSVALDO</t>
-  </si>
-  <si>
-    <t>MONSERRAT</t>
   </si>
 </sst>
 </file>
@@ -909,13 +909,13 @@
         <v>-1</v>
       </c>
       <c r="F4">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G4">
         <v>5</v>
       </c>
       <c r="H4">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I4">
         <v>-1</v>
@@ -930,13 +930,13 @@
         <v>-1</v>
       </c>
       <c r="M4">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N4">
         <v>-1</v>
       </c>
       <c r="O4">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P4">
         <v>-1</v>
@@ -998,13 +998,13 @@
         <v>-1</v>
       </c>
       <c r="M5">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N5">
         <v>-1</v>
       </c>
       <c r="O5">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="P5">
         <v>-1</v>
@@ -1066,13 +1066,13 @@
         <v>6</v>
       </c>
       <c r="M6">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N6">
         <v>9</v>
       </c>
       <c r="O6">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="P6">
         <v>-1</v>
@@ -1113,13 +1113,13 @@
         <v>-1</v>
       </c>
       <c r="F7">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G7">
         <v>5</v>
       </c>
       <c r="H7">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I7">
         <v>-1</v>
@@ -1134,13 +1134,13 @@
         <v>-1</v>
       </c>
       <c r="M7">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N7">
         <v>-1</v>
       </c>
       <c r="O7">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P7">
         <v>-1</v>
@@ -1181,13 +1181,13 @@
         <v>6</v>
       </c>
       <c r="F8">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G8">
         <v>5</v>
       </c>
       <c r="H8">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I8">
         <v>-1</v>
@@ -1202,13 +1202,13 @@
         <v>-1</v>
       </c>
       <c r="M8">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N8">
         <v>-1</v>
       </c>
       <c r="O8">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P8">
         <v>-1</v>
@@ -1249,13 +1249,13 @@
         <v>-1</v>
       </c>
       <c r="F9">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G9">
         <v>5</v>
       </c>
       <c r="H9">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I9">
         <v>-1</v>
@@ -1270,13 +1270,13 @@
         <v>-1</v>
       </c>
       <c r="M9">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N9">
         <v>-1</v>
       </c>
       <c r="O9">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P9">
         <v>-1</v>
@@ -1317,13 +1317,13 @@
         <v>-1</v>
       </c>
       <c r="F10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G10">
         <v>5</v>
       </c>
       <c r="H10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I10">
         <v>-1</v>
@@ -1338,13 +1338,13 @@
         <v>-1</v>
       </c>
       <c r="M10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N10">
         <v>-1</v>
       </c>
       <c r="O10">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P10">
         <v>-1</v>
@@ -1406,13 +1406,13 @@
         <v>-1</v>
       </c>
       <c r="M11">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N11">
         <v>9</v>
       </c>
       <c r="O11">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="P11">
         <v>-1</v>
@@ -1459,7 +1459,7 @@
         <v>7</v>
       </c>
       <c r="H12">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I12">
         <v>6</v>
@@ -1474,13 +1474,13 @@
         <v>6</v>
       </c>
       <c r="M12">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N12">
         <v>-1</v>
       </c>
       <c r="O12">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P12">
         <v>-1</v>
@@ -1521,7 +1521,7 @@
         <v>6</v>
       </c>
       <c r="F13">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G13">
         <v>8</v>
@@ -1542,13 +1542,13 @@
         <v>6</v>
       </c>
       <c r="M13">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N13">
         <v>8</v>
       </c>
       <c r="O13">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="P13">
         <v>-1</v>
@@ -1589,13 +1589,13 @@
         <v>6</v>
       </c>
       <c r="F14">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G14">
         <v>6</v>
       </c>
       <c r="H14">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I14">
         <v>7</v>
@@ -1610,13 +1610,13 @@
         <v>7</v>
       </c>
       <c r="M14">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N14">
         <v>8</v>
       </c>
       <c r="O14">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P14">
         <v>-1</v>
@@ -1657,13 +1657,13 @@
         <v>5</v>
       </c>
       <c r="F15">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G15">
         <v>5</v>
       </c>
       <c r="H15">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I15">
         <v>-1</v>
@@ -1678,13 +1678,13 @@
         <v>5</v>
       </c>
       <c r="M15">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N15">
         <v>-1</v>
       </c>
       <c r="O15">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P15">
         <v>-1</v>
@@ -1725,13 +1725,13 @@
         <v>6</v>
       </c>
       <c r="F16">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G16">
         <v>5</v>
       </c>
       <c r="H16">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I16">
         <v>6</v>
@@ -1746,13 +1746,13 @@
         <v>7</v>
       </c>
       <c r="M16">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N16">
         <v>8</v>
       </c>
       <c r="O16">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P16">
         <v>-1</v>
@@ -1814,13 +1814,13 @@
         <v>6</v>
       </c>
       <c r="M17">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N17">
         <v>-1</v>
       </c>
       <c r="O17">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="P17">
         <v>-1</v>
@@ -1882,13 +1882,13 @@
         <v>6</v>
       </c>
       <c r="M18">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N18">
         <v>8</v>
       </c>
       <c r="O18">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="P18">
         <v>-1</v>
@@ -1929,13 +1929,13 @@
         <v>8</v>
       </c>
       <c r="F19">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G19">
         <v>7</v>
       </c>
       <c r="H19">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I19">
         <v>-1</v>
@@ -1950,13 +1950,13 @@
         <v>-1</v>
       </c>
       <c r="M19">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N19">
         <v>-1</v>
       </c>
       <c r="O19">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P19">
         <v>-1</v>
@@ -1997,13 +1997,13 @@
         <v>-1</v>
       </c>
       <c r="F20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G20">
         <v>5</v>
       </c>
       <c r="H20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I20">
         <v>-1</v>
@@ -2018,13 +2018,13 @@
         <v>-1</v>
       </c>
       <c r="M20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N20">
         <v>-1</v>
       </c>
       <c r="O20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P20">
         <v>-1</v>
@@ -2065,13 +2065,13 @@
         <v>6</v>
       </c>
       <c r="F21">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G21">
         <v>7</v>
       </c>
       <c r="H21">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I21">
         <v>7</v>
@@ -2086,13 +2086,13 @@
         <v>-1</v>
       </c>
       <c r="M21">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N21">
         <v>-1</v>
       </c>
       <c r="O21">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P21">
         <v>-1</v>
@@ -2133,13 +2133,13 @@
         <v>-1</v>
       </c>
       <c r="F22">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G22">
         <v>5</v>
       </c>
       <c r="H22">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I22">
         <v>-1</v>
@@ -2154,13 +2154,13 @@
         <v>-1</v>
       </c>
       <c r="M22">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N22">
         <v>-1</v>
       </c>
       <c r="O22">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P22">
         <v>-1</v>
@@ -2201,13 +2201,13 @@
         <v>6</v>
       </c>
       <c r="F23">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G23">
         <v>7</v>
       </c>
       <c r="H23">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I23">
         <v>-1</v>
@@ -2222,13 +2222,13 @@
         <v>-1</v>
       </c>
       <c r="M23">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N23">
         <v>9</v>
       </c>
       <c r="O23">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P23">
         <v>-1</v>
@@ -2275,7 +2275,7 @@
         <v>10</v>
       </c>
       <c r="H24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I24">
         <v>-1</v>
@@ -2290,13 +2290,13 @@
         <v>7</v>
       </c>
       <c r="M24">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N24">
         <v>9</v>
       </c>
       <c r="O24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P24">
         <v>-1</v>
@@ -2337,13 +2337,13 @@
         <v>-1</v>
       </c>
       <c r="F25">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G25">
         <v>5</v>
       </c>
       <c r="H25">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I25">
         <v>-1</v>
@@ -2358,13 +2358,13 @@
         <v>-1</v>
       </c>
       <c r="M25">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N25">
         <v>-1</v>
       </c>
       <c r="O25">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P25">
         <v>-1</v>
@@ -2405,13 +2405,13 @@
         <v>6</v>
       </c>
       <c r="F26">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G26">
         <v>7</v>
       </c>
       <c r="H26">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I26">
         <v>6</v>
@@ -2426,13 +2426,13 @@
         <v>7</v>
       </c>
       <c r="M26">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N26">
         <v>-1</v>
       </c>
       <c r="O26">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P26">
         <v>-1</v>
@@ -2473,13 +2473,13 @@
         <v>-1</v>
       </c>
       <c r="F27">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G27">
         <v>5</v>
       </c>
       <c r="H27">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I27">
         <v>-1</v>
@@ -2494,13 +2494,13 @@
         <v>-1</v>
       </c>
       <c r="M27">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N27">
         <v>-1</v>
       </c>
       <c r="O27">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P27">
         <v>-1</v>
@@ -2547,7 +2547,7 @@
         <v>5</v>
       </c>
       <c r="H28">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I28">
         <v>-1</v>
@@ -2562,13 +2562,13 @@
         <v>6</v>
       </c>
       <c r="M28">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="N28">
         <v>-1</v>
       </c>
       <c r="O28">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P28">
         <v>-1</v>
@@ -2609,13 +2609,13 @@
         <v>-1</v>
       </c>
       <c r="F29">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G29">
         <v>5</v>
       </c>
       <c r="H29">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I29">
         <v>6</v>
@@ -2630,13 +2630,13 @@
         <v>-1</v>
       </c>
       <c r="M29">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N29">
         <v>-1</v>
       </c>
       <c r="O29">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P29">
         <v>-1</v>
@@ -2677,13 +2677,13 @@
         <v>-1</v>
       </c>
       <c r="F30">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G30">
         <v>5</v>
       </c>
       <c r="H30">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I30">
         <v>-1</v>
@@ -2698,13 +2698,13 @@
         <v>-1</v>
       </c>
       <c r="M30">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N30">
         <v>-1</v>
       </c>
       <c r="O30">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P30">
         <v>-1</v>
@@ -2745,13 +2745,13 @@
         <v>-1</v>
       </c>
       <c r="F31">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G31">
         <v>5</v>
       </c>
       <c r="H31">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I31">
         <v>-1</v>
@@ -2766,13 +2766,13 @@
         <v>-1</v>
       </c>
       <c r="M31">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N31">
         <v>-1</v>
       </c>
       <c r="O31">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P31">
         <v>-1</v>
@@ -2813,13 +2813,13 @@
         <v>6</v>
       </c>
       <c r="F32">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="G32">
         <v>8</v>
       </c>
       <c r="H32">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="I32">
         <v>-1</v>
@@ -2834,13 +2834,13 @@
         <v>8</v>
       </c>
       <c r="M32">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="N32">
         <v>-1</v>
       </c>
       <c r="O32">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="P32">
         <v>-1</v>
@@ -2919,7 +2919,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>50</v>
@@ -2928,184 +2928,190 @@
         <v>29</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>13.79</v>
       </c>
       <c r="G2">
-        <v>20.69</v>
+        <v>24.14</v>
+      </c>
+      <c r="H2">
+        <v>8</v>
       </c>
       <c r="I2">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J2">
-        <v>100</v>
+        <v>86.20999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C3">
         <v>29</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E3">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>17.24</v>
       </c>
       <c r="G3">
-        <v>27.59</v>
+        <v>82.76000000000001</v>
+      </c>
+      <c r="H3">
+        <v>7.4</v>
       </c>
       <c r="I3">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="J3">
-        <v>100</v>
+        <v>75.86</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C4">
         <v>29</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E4">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="F4">
-        <v>13.79</v>
+        <v>27.59</v>
       </c>
       <c r="G4">
-        <v>24.14</v>
+        <v>72.41</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="I4">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J4">
-        <v>86.20999999999999</v>
+        <v>72.41</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C5">
         <v>29</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E5">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F5">
-        <v>17.24</v>
+        <v>37.93</v>
       </c>
       <c r="G5">
-        <v>82.76000000000001</v>
+        <v>20.69</v>
       </c>
       <c r="H5">
-        <v>7.4</v>
+        <v>6.6</v>
       </c>
       <c r="I5">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J5">
-        <v>75.86</v>
+        <v>58.62</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C6">
         <v>29</v>
       </c>
       <c r="D6">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E6">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="F6">
-        <v>27.59</v>
+        <v>37.93</v>
       </c>
       <c r="G6">
-        <v>72.41</v>
+        <v>20.69</v>
       </c>
       <c r="H6">
-        <v>8.5</v>
+        <v>6.4</v>
       </c>
       <c r="I6">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="J6">
-        <v>72.41</v>
+        <v>58.62</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C7">
         <v>29</v>
       </c>
       <c r="D7">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>37.93</v>
+        <v>100</v>
       </c>
       <c r="G7">
-        <v>20.69</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="I7">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>58.62</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
         <v>55</v>
@@ -3114,25 +3120,25 @@
         <v>29</v>
       </c>
       <c r="D8">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E8">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>37.93</v>
+        <v>100</v>
       </c>
       <c r="G8">
-        <v>20.69</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="I8">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>58.62</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3142,7 +3148,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F161"/>
+  <dimension ref="A1:F103"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3186,10 +3192,10 @@
         <v>107</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3206,7 +3212,7 @@
         <v>107</v>
       </c>
       <c r="E3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
         <v>52</v>
@@ -3226,10 +3232,10 @@
         <v>107</v>
       </c>
       <c r="E4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3246,10 +3252,10 @@
         <v>107</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3266,50 +3272,50 @@
         <v>107</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>19330051920042</v>
+        <v>19330051920045</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>19330051920042</v>
+        <v>19330051920045</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E8" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3326,10 +3332,10 @@
         <v>108</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3349,24 +3355,24 @@
         <v>6</v>
       </c>
       <c r="F10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>19330051920045</v>
+        <v>19330051920046</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F11" t="s">
         <v>50</v>
@@ -3374,199 +3380,199 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>19330051920045</v>
+        <v>19330051920046</v>
       </c>
       <c r="B12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E12" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>19330051920045</v>
+        <v>19330051920051</v>
       </c>
       <c r="B13" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C13" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="D13" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14">
-        <v>19330051920045</v>
+        <v>19330051920051</v>
       </c>
       <c r="B14" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C14" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="D14" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E14" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F14" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15">
-        <v>19330051920046</v>
+        <v>19330051920051</v>
       </c>
       <c r="B15" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C15" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="D15" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16">
-        <v>19330051920046</v>
+        <v>19330051920051</v>
       </c>
       <c r="B16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C16" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="D16" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E16" t="s">
         <v>6</v>
       </c>
       <c r="F16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17">
-        <v>19330051920046</v>
+        <v>19330051920051</v>
       </c>
       <c r="B17" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C17" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="D17" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E17" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F17" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18">
-        <v>19330051920046</v>
+        <v>19330051920049</v>
       </c>
       <c r="B18" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C18" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D18" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F18" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19">
-        <v>19330051920051</v>
+        <v>19330051920049</v>
       </c>
       <c r="B19" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C19" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="D19" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E19" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F19" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20">
-        <v>19330051920051</v>
+        <v>19330051920049</v>
       </c>
       <c r="B20" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C20" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="D20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F20" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21">
-        <v>19330051920051</v>
+        <v>19330051920049</v>
       </c>
       <c r="B21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C21" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="D21" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E21" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F21" t="s">
         <v>54</v>
@@ -3574,19 +3580,19 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22">
-        <v>19330051920051</v>
+        <v>19330051920049</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C22" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="D22" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E22" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F22" t="s">
         <v>50</v>
@@ -3594,119 +3600,119 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23">
-        <v>19330051920051</v>
+        <v>19330051920052</v>
       </c>
       <c r="B23" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C23" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="D23" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E23" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F23" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24">
-        <v>19330051920051</v>
+        <v>19330051920052</v>
       </c>
       <c r="B24" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C24" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="D24" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E24" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25">
-        <v>19330051920051</v>
+        <v>19330051920052</v>
       </c>
       <c r="B25" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C25" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="D25" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E25" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26">
-        <v>19330051920049</v>
+        <v>19330051920052</v>
       </c>
       <c r="B26" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C26" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D26" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E26" t="s">
         <v>5</v>
       </c>
       <c r="F26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27">
-        <v>19330051920049</v>
+        <v>19330051920052</v>
       </c>
       <c r="B27" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C27" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D27" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E27" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F27" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>19330051920049</v>
+        <v>19330051920053</v>
       </c>
       <c r="B28" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C28" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D28" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E28" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F28" t="s">
         <v>54</v>
@@ -3714,19 +3720,19 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29">
-        <v>19330051920049</v>
+        <v>19330051920055</v>
       </c>
       <c r="B29" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C29" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D29" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F29" t="s">
         <v>50</v>
@@ -3734,19 +3740,19 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30">
-        <v>19330051920049</v>
+        <v>19330051920055</v>
       </c>
       <c r="B30" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C30" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D30" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E30" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F30" t="s">
         <v>51</v>
@@ -3754,279 +3760,279 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>19330051920049</v>
+        <v>19330051920055</v>
       </c>
       <c r="B31" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C31" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D31" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F31" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>19330051920049</v>
+        <v>19330051920057</v>
       </c>
       <c r="B32" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C32" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D32" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F32" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>19330051920052</v>
+        <v>19330051920056</v>
       </c>
       <c r="B33" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C33" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D33" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E33" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F33" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34">
-        <v>19330051920052</v>
+        <v>18330051920022</v>
       </c>
       <c r="B34" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C34" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D34" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E34" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F34" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35">
-        <v>19330051920052</v>
+        <v>18330051920022</v>
       </c>
       <c r="B35" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C35" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D35" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F35" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>19330051920052</v>
+        <v>18330051920022</v>
       </c>
       <c r="B36" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C36" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D36" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E36" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F36" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37">
-        <v>19330051920052</v>
+        <v>19330051920060</v>
       </c>
       <c r="B37" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C37" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D37" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="E37" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F37" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>19330051920052</v>
+        <v>19330051920060</v>
       </c>
       <c r="B38" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C38" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D38" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="E38" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F38" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39">
-        <v>19330051920052</v>
+        <v>19330051920061</v>
       </c>
       <c r="B39" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C39" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="D39" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F39" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40">
-        <v>19330051920053</v>
+        <v>19330051920061</v>
       </c>
       <c r="B40" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C40" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D40" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E40" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F40" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41">
-        <v>19330051920053</v>
+        <v>19330051920061</v>
       </c>
       <c r="B41" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C41" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D41" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F41" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42">
-        <v>19330051920053</v>
+        <v>19330051920061</v>
       </c>
       <c r="B42" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C42" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D42" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E42" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F42" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>19330051920055</v>
+        <v>19330051920061</v>
       </c>
       <c r="B43" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C43" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D43" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="E43" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F43" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44">
-        <v>19330051920055</v>
+        <v>19330051920050</v>
       </c>
       <c r="B44" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C44" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="D44" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E44" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F44" t="s">
         <v>53</v>
@@ -4034,19 +4040,19 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45">
-        <v>19330051920055</v>
+        <v>19330051920050</v>
       </c>
       <c r="B45" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C45" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="D45" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F45" t="s">
         <v>51</v>
@@ -4054,39 +4060,39 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46">
-        <v>19330051920055</v>
+        <v>19330051920050</v>
       </c>
       <c r="B46" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C46" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="D46" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F46" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47">
-        <v>19330051920055</v>
+        <v>19330051920050</v>
       </c>
       <c r="B47" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C47" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="D47" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="E47" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F47" t="s">
         <v>52</v>
@@ -4094,79 +4100,79 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>19330051920057</v>
+        <v>19330051920050</v>
       </c>
       <c r="B48" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C48" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="D48" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E48" t="s">
         <v>6</v>
       </c>
       <c r="F48" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49">
-        <v>19330051920057</v>
+        <v>19330051920064</v>
       </c>
       <c r="B49" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C49" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D49" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F49" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50">
-        <v>19330051920057</v>
+        <v>19330051920064</v>
       </c>
       <c r="B50" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C50" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D50" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="E50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F50" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51">
-        <v>19330051920056</v>
+        <v>19330051920064</v>
       </c>
       <c r="B51" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C51" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="D51" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E51" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F51" t="s">
         <v>50</v>
@@ -4174,159 +4180,159 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>19330051920056</v>
+        <v>19330051920064</v>
       </c>
       <c r="B52" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C52" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="D52" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F52" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>19330051920056</v>
+        <v>19330051920064</v>
       </c>
       <c r="B53" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C53" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="D53" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E53" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F53" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54">
-        <v>18330051920022</v>
+        <v>19330051920067</v>
       </c>
       <c r="B54" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C54" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D54" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E54" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F54" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55">
-        <v>18330051920022</v>
+        <v>19330051920067</v>
       </c>
       <c r="B55" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C55" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D55" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E55" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F55" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>18330051920022</v>
+        <v>19330051920067</v>
       </c>
       <c r="B56" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C56" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D56" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F56" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>18330051920022</v>
+        <v>19330051920067</v>
       </c>
       <c r="B57" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C57" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D57" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E57" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F57" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58">
-        <v>18330051920022</v>
+        <v>19330051920068</v>
       </c>
       <c r="B58" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C58" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D58" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E58" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F58" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59">
-        <v>19330051920058</v>
+        <v>19330051920068</v>
       </c>
       <c r="B59" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C59" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="D59" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F59" t="s">
         <v>50</v>
@@ -4334,59 +4340,59 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60">
-        <v>19330051920058</v>
+        <v>19330051920068</v>
       </c>
       <c r="B60" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C60" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="D60" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="E60" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F60" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>19330051920060</v>
+        <v>19330051920068</v>
       </c>
       <c r="B61" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C61" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D61" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F61" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>19330051920060</v>
+        <v>19330051920068</v>
       </c>
       <c r="B62" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C62" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D62" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E62" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F62" t="s">
         <v>53</v>
@@ -4394,19 +4400,19 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63">
-        <v>19330051920060</v>
+        <v>19330051920069</v>
       </c>
       <c r="B63" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C63" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D63" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E63" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F63" t="s">
         <v>51</v>
@@ -4414,39 +4420,39 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>19330051920060</v>
+        <v>19330051920069</v>
       </c>
       <c r="B64" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C64" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D64" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="E64" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F64" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>19330051920059</v>
+        <v>19330051920069</v>
       </c>
       <c r="B65" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C65" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="D65" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F65" t="s">
         <v>50</v>
@@ -4454,79 +4460,79 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>19330051920059</v>
+        <v>19330051920069</v>
       </c>
       <c r="B66" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C66" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="D66" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E66" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F66" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>19330051920061</v>
+        <v>19330051920071</v>
       </c>
       <c r="B67" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C67" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D67" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F67" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>19330051920061</v>
+        <v>19330051920071</v>
       </c>
       <c r="B68" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C68" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D68" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E68" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F68" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>19330051920061</v>
+        <v>19330051920071</v>
       </c>
       <c r="B69" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="C69" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D69" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E69" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F69" t="s">
         <v>50</v>
@@ -4534,79 +4540,79 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70">
-        <v>19330051920061</v>
+        <v>18330051920074</v>
       </c>
       <c r="B70" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C70" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="D70" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E70" t="s">
         <v>4</v>
       </c>
       <c r="F70" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71">
-        <v>19330051920061</v>
+        <v>18330051920074</v>
       </c>
       <c r="B71" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C71" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="D71" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E71" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F71" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>19330051920061</v>
+        <v>18330051920074</v>
       </c>
       <c r="B72" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C72" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="D72" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E72" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F72" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>19330051920061</v>
+        <v>18330051920074</v>
       </c>
       <c r="B73" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C73" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="D73" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E73" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F73" t="s">
         <v>51</v>
@@ -4614,99 +4620,99 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>19330051920050</v>
+        <v>18330051920074</v>
       </c>
       <c r="B74" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C74" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="D74" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E74" t="s">
         <v>6</v>
       </c>
       <c r="F74" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>19330051920050</v>
+        <v>19330051920074</v>
       </c>
       <c r="B75" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C75" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="D75" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E75" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F75" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>19330051920050</v>
+        <v>19330051920074</v>
       </c>
       <c r="B76" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C76" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="D76" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E76" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F76" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>19330051920050</v>
+        <v>19330051920074</v>
       </c>
       <c r="B77" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C77" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="D77" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E77" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F77" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78">
-        <v>19330051920050</v>
+        <v>19330051920075</v>
       </c>
       <c r="B78" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C78" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="D78" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="E78" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F78" t="s">
         <v>52</v>
@@ -4714,119 +4720,119 @@
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>19330051920050</v>
+        <v>19330051920075</v>
       </c>
       <c r="B79" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C79" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="D79" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F79" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>19330051920050</v>
+        <v>19330051920075</v>
       </c>
       <c r="B80" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C80" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="D80" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="E80" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F80" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>19330051920064</v>
+        <v>19330051920075</v>
       </c>
       <c r="B81" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C81" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="D81" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E81" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F81" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82">
-        <v>19330051920064</v>
+        <v>19330051920418</v>
       </c>
       <c r="B82" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C82" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D82" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="E82" t="s">
         <v>5</v>
       </c>
       <c r="F82" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>19330051920064</v>
+        <v>19330051920418</v>
       </c>
       <c r="B83" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C83" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D83" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="E83" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F83" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>19330051920064</v>
+        <v>19330051920418</v>
       </c>
       <c r="B84" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C84" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D84" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="E84" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F84" t="s">
         <v>50</v>
@@ -4834,39 +4840,39 @@
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>19330051920064</v>
+        <v>19330051920418</v>
       </c>
       <c r="B85" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C85" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D85" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="E85" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F85" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86">
-        <v>19330051920064</v>
+        <v>19330051920076</v>
       </c>
       <c r="B86" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="C86" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="D86" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="E86" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F86" t="s">
         <v>54</v>
@@ -4874,99 +4880,99 @@
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>19330051920064</v>
+        <v>19330051920076</v>
       </c>
       <c r="B87" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="C87" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="D87" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F87" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
-        <v>19330051920067</v>
+        <v>19330051920076</v>
       </c>
       <c r="B88" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C88" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="D88" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="E88" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F88" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
-        <v>19330051920067</v>
+        <v>19330051920076</v>
       </c>
       <c r="B89" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C89" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="D89" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F89" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90">
-        <v>19330051920067</v>
+        <v>18330051920029</v>
       </c>
       <c r="B90" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C90" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="D90" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="E90" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F90" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91">
-        <v>19330051920067</v>
+        <v>18330051920029</v>
       </c>
       <c r="B91" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C91" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="D91" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="E91" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F91" t="s">
         <v>52</v>
@@ -4974,19 +4980,19 @@
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
-        <v>19330051920067</v>
+        <v>18330051920029</v>
       </c>
       <c r="B92" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C92" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="D92" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="E92" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F92" t="s">
         <v>53</v>
@@ -4994,19 +5000,19 @@
     </row>
     <row r="93" spans="1:6">
       <c r="A93">
-        <v>19330051920067</v>
+        <v>18330051920029</v>
       </c>
       <c r="B93" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C93" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="D93" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="E93" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F93" t="s">
         <v>50</v>
@@ -5014,79 +5020,79 @@
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
-        <v>19330051920068</v>
+        <v>18330051920029</v>
       </c>
       <c r="B94" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C94" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="D94" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F94" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95">
-        <v>19330051920068</v>
+        <v>19330051920079</v>
       </c>
       <c r="B95" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="C95" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="D95" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E95" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F95" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96">
-        <v>19330051920068</v>
+        <v>19330051920079</v>
       </c>
       <c r="B96" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="C96" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="D96" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F96" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97">
-        <v>19330051920068</v>
+        <v>19330051920079</v>
       </c>
       <c r="B97" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="C97" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="D97" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E97" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F97" t="s">
         <v>51</v>
@@ -5094,99 +5100,99 @@
     </row>
     <row r="98" spans="1:6">
       <c r="A98">
-        <v>19330051920068</v>
+        <v>19330051920079</v>
       </c>
       <c r="B98" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="C98" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="D98" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E98" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F98" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99">
-        <v>19330051920068</v>
+        <v>19330051920079</v>
       </c>
       <c r="B99" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="C99" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="D99" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E99" t="s">
         <v>4</v>
       </c>
       <c r="F99" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100">
-        <v>19330051920068</v>
+        <v>19330051920081</v>
       </c>
       <c r="B100" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="C100" t="s">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="D100" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="E100" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F100" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101">
-        <v>19330051920069</v>
+        <v>19330051920081</v>
       </c>
       <c r="B101" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="C101" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="D101" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="E101" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F101" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102">
-        <v>19330051920069</v>
+        <v>19330051920081</v>
       </c>
       <c r="B102" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="C102" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="D102" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="E102" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F102" t="s">
         <v>52</v>
@@ -5194,1182 +5200,22 @@
     </row>
     <row r="103" spans="1:6">
       <c r="A103">
-        <v>19330051920069</v>
+        <v>19330051920081</v>
       </c>
       <c r="B103" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="C103" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="D103" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="E103" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F103" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
-      <c r="A104">
-        <v>19330051920069</v>
-      </c>
-      <c r="B104" t="s">
-        <v>75</v>
-      </c>
-      <c r="C104" t="s">
-        <v>99</v>
-      </c>
-      <c r="D104" t="s">
-        <v>126</v>
-      </c>
-      <c r="E104" t="s">
-        <v>6</v>
-      </c>
-      <c r="F104" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
-      <c r="A105">
-        <v>19330051920069</v>
-      </c>
-      <c r="B105" t="s">
-        <v>75</v>
-      </c>
-      <c r="C105" t="s">
-        <v>99</v>
-      </c>
-      <c r="D105" t="s">
-        <v>126</v>
-      </c>
-      <c r="E105" t="s">
-        <v>10</v>
-      </c>
-      <c r="F105" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
-      <c r="A106">
-        <v>19330051920069</v>
-      </c>
-      <c r="B106" t="s">
-        <v>75</v>
-      </c>
-      <c r="C106" t="s">
-        <v>99</v>
-      </c>
-      <c r="D106" t="s">
-        <v>126</v>
-      </c>
-      <c r="E106" t="s">
-        <v>4</v>
-      </c>
-      <c r="F106" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
-      <c r="A107">
-        <v>19330051920071</v>
-      </c>
-      <c r="B107" t="s">
-        <v>76</v>
-      </c>
-      <c r="C107" t="s">
-        <v>100</v>
-      </c>
-      <c r="D107" t="s">
-        <v>127</v>
-      </c>
-      <c r="E107" t="s">
-        <v>10</v>
-      </c>
-      <c r="F107" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
-      <c r="A108">
-        <v>19330051920071</v>
-      </c>
-      <c r="B108" t="s">
-        <v>76</v>
-      </c>
-      <c r="C108" t="s">
-        <v>100</v>
-      </c>
-      <c r="D108" t="s">
-        <v>127</v>
-      </c>
-      <c r="E108" t="s">
-        <v>6</v>
-      </c>
-      <c r="F108" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
-      <c r="A109">
-        <v>19330051920071</v>
-      </c>
-      <c r="B109" t="s">
-        <v>76</v>
-      </c>
-      <c r="C109" t="s">
-        <v>100</v>
-      </c>
-      <c r="D109" t="s">
-        <v>127</v>
-      </c>
-      <c r="E109" t="s">
-        <v>8</v>
-      </c>
-      <c r="F109" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
-      <c r="A110">
-        <v>19330051920071</v>
-      </c>
-      <c r="B110" t="s">
-        <v>76</v>
-      </c>
-      <c r="C110" t="s">
-        <v>100</v>
-      </c>
-      <c r="D110" t="s">
-        <v>127</v>
-      </c>
-      <c r="E110" t="s">
-        <v>5</v>
-      </c>
-      <c r="F110" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
-      <c r="A111">
-        <v>19330051920071</v>
-      </c>
-      <c r="B111" t="s">
-        <v>76</v>
-      </c>
-      <c r="C111" t="s">
-        <v>100</v>
-      </c>
-      <c r="D111" t="s">
-        <v>127</v>
-      </c>
-      <c r="E111" t="s">
-        <v>4</v>
-      </c>
-      <c r="F111" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6">
-      <c r="A112">
-        <v>18330051920074</v>
-      </c>
-      <c r="B112" t="s">
-        <v>77</v>
-      </c>
-      <c r="C112" t="s">
-        <v>101</v>
-      </c>
-      <c r="D112" t="s">
-        <v>128</v>
-      </c>
-      <c r="E112" t="s">
-        <v>8</v>
-      </c>
-      <c r="F112" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6">
-      <c r="A113">
-        <v>18330051920074</v>
-      </c>
-      <c r="B113" t="s">
-        <v>77</v>
-      </c>
-      <c r="C113" t="s">
-        <v>101</v>
-      </c>
-      <c r="D113" t="s">
-        <v>128</v>
-      </c>
-      <c r="E113" t="s">
-        <v>6</v>
-      </c>
-      <c r="F113" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6">
-      <c r="A114">
-        <v>18330051920074</v>
-      </c>
-      <c r="B114" t="s">
-        <v>77</v>
-      </c>
-      <c r="C114" t="s">
-        <v>101</v>
-      </c>
-      <c r="D114" t="s">
-        <v>128</v>
-      </c>
-      <c r="E114" t="s">
-        <v>4</v>
-      </c>
-      <c r="F114" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6">
-      <c r="A115">
-        <v>18330051920074</v>
-      </c>
-      <c r="B115" t="s">
-        <v>77</v>
-      </c>
-      <c r="C115" t="s">
-        <v>101</v>
-      </c>
-      <c r="D115" t="s">
-        <v>128</v>
-      </c>
-      <c r="E115" t="s">
-        <v>7</v>
-      </c>
-      <c r="F115" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
-      <c r="A116">
-        <v>18330051920074</v>
-      </c>
-      <c r="B116" t="s">
-        <v>77</v>
-      </c>
-      <c r="C116" t="s">
-        <v>101</v>
-      </c>
-      <c r="D116" t="s">
-        <v>128</v>
-      </c>
-      <c r="E116" t="s">
-        <v>9</v>
-      </c>
-      <c r="F116" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
-      <c r="A117">
-        <v>18330051920074</v>
-      </c>
-      <c r="B117" t="s">
-        <v>77</v>
-      </c>
-      <c r="C117" t="s">
-        <v>101</v>
-      </c>
-      <c r="D117" t="s">
-        <v>128</v>
-      </c>
-      <c r="E117" t="s">
-        <v>10</v>
-      </c>
-      <c r="F117" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6">
-      <c r="A118">
-        <v>18330051920074</v>
-      </c>
-      <c r="B118" t="s">
-        <v>77</v>
-      </c>
-      <c r="C118" t="s">
-        <v>101</v>
-      </c>
-      <c r="D118" t="s">
-        <v>128</v>
-      </c>
-      <c r="E118" t="s">
-        <v>5</v>
-      </c>
-      <c r="F118" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
-      <c r="A119">
-        <v>19330051920074</v>
-      </c>
-      <c r="B119" t="s">
-        <v>78</v>
-      </c>
-      <c r="C119" t="s">
-        <v>63</v>
-      </c>
-      <c r="D119" t="s">
-        <v>129</v>
-      </c>
-      <c r="E119" t="s">
-        <v>5</v>
-      </c>
-      <c r="F119" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6">
-      <c r="A120">
-        <v>19330051920074</v>
-      </c>
-      <c r="B120" t="s">
-        <v>78</v>
-      </c>
-      <c r="C120" t="s">
-        <v>63</v>
-      </c>
-      <c r="D120" t="s">
-        <v>129</v>
-      </c>
-      <c r="E120" t="s">
-        <v>6</v>
-      </c>
-      <c r="F120" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6">
-      <c r="A121">
-        <v>19330051920074</v>
-      </c>
-      <c r="B121" t="s">
-        <v>78</v>
-      </c>
-      <c r="C121" t="s">
-        <v>63</v>
-      </c>
-      <c r="D121" t="s">
-        <v>129</v>
-      </c>
-      <c r="E121" t="s">
-        <v>10</v>
-      </c>
-      <c r="F121" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6">
-      <c r="A122">
-        <v>19330051920074</v>
-      </c>
-      <c r="B122" t="s">
-        <v>78</v>
-      </c>
-      <c r="C122" t="s">
-        <v>63</v>
-      </c>
-      <c r="D122" t="s">
-        <v>129</v>
-      </c>
-      <c r="E122" t="s">
-        <v>9</v>
-      </c>
-      <c r="F122" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6">
-      <c r="A123">
-        <v>19330051920074</v>
-      </c>
-      <c r="B123" t="s">
-        <v>78</v>
-      </c>
-      <c r="C123" t="s">
-        <v>63</v>
-      </c>
-      <c r="D123" t="s">
-        <v>129</v>
-      </c>
-      <c r="E123" t="s">
-        <v>8</v>
-      </c>
-      <c r="F123" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6">
-      <c r="A124">
-        <v>19330051920075</v>
-      </c>
-      <c r="B124" t="s">
-        <v>79</v>
-      </c>
-      <c r="C124" t="s">
-        <v>102</v>
-      </c>
-      <c r="D124" t="s">
-        <v>130</v>
-      </c>
-      <c r="E124" t="s">
-        <v>10</v>
-      </c>
-      <c r="F124" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6">
-      <c r="A125">
-        <v>19330051920075</v>
-      </c>
-      <c r="B125" t="s">
-        <v>79</v>
-      </c>
-      <c r="C125" t="s">
-        <v>102</v>
-      </c>
-      <c r="D125" t="s">
-        <v>130</v>
-      </c>
-      <c r="E125" t="s">
-        <v>7</v>
-      </c>
-      <c r="F125" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6">
-      <c r="A126">
-        <v>19330051920075</v>
-      </c>
-      <c r="B126" t="s">
-        <v>79</v>
-      </c>
-      <c r="C126" t="s">
-        <v>102</v>
-      </c>
-      <c r="D126" t="s">
-        <v>130</v>
-      </c>
-      <c r="E126" t="s">
-        <v>8</v>
-      </c>
-      <c r="F126" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6">
-      <c r="A127">
-        <v>19330051920075</v>
-      </c>
-      <c r="B127" t="s">
-        <v>79</v>
-      </c>
-      <c r="C127" t="s">
-        <v>102</v>
-      </c>
-      <c r="D127" t="s">
-        <v>130</v>
-      </c>
-      <c r="E127" t="s">
-        <v>4</v>
-      </c>
-      <c r="F127" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6">
-      <c r="A128">
-        <v>19330051920075</v>
-      </c>
-      <c r="B128" t="s">
-        <v>79</v>
-      </c>
-      <c r="C128" t="s">
-        <v>102</v>
-      </c>
-      <c r="D128" t="s">
-        <v>130</v>
-      </c>
-      <c r="E128" t="s">
-        <v>9</v>
-      </c>
-      <c r="F128" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
-      <c r="A129">
-        <v>19330051920075</v>
-      </c>
-      <c r="B129" t="s">
-        <v>79</v>
-      </c>
-      <c r="C129" t="s">
-        <v>102</v>
-      </c>
-      <c r="D129" t="s">
-        <v>130</v>
-      </c>
-      <c r="E129" t="s">
-        <v>5</v>
-      </c>
-      <c r="F129" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
-      <c r="A130">
-        <v>19330051920418</v>
-      </c>
-      <c r="B130" t="s">
-        <v>80</v>
-      </c>
-      <c r="C130" t="s">
-        <v>103</v>
-      </c>
-      <c r="D130" t="s">
-        <v>131</v>
-      </c>
-      <c r="E130" t="s">
-        <v>4</v>
-      </c>
-      <c r="F130" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6">
-      <c r="A131">
-        <v>19330051920418</v>
-      </c>
-      <c r="B131" t="s">
-        <v>80</v>
-      </c>
-      <c r="C131" t="s">
-        <v>103</v>
-      </c>
-      <c r="D131" t="s">
-        <v>131</v>
-      </c>
-      <c r="E131" t="s">
-        <v>8</v>
-      </c>
-      <c r="F131" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6">
-      <c r="A132">
-        <v>19330051920418</v>
-      </c>
-      <c r="B132" t="s">
-        <v>80</v>
-      </c>
-      <c r="C132" t="s">
-        <v>103</v>
-      </c>
-      <c r="D132" t="s">
-        <v>131</v>
-      </c>
-      <c r="E132" t="s">
-        <v>10</v>
-      </c>
-      <c r="F132" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6">
-      <c r="A133">
-        <v>19330051920418</v>
-      </c>
-      <c r="B133" t="s">
-        <v>80</v>
-      </c>
-      <c r="C133" t="s">
-        <v>103</v>
-      </c>
-      <c r="D133" t="s">
-        <v>131</v>
-      </c>
-      <c r="E133" t="s">
-        <v>6</v>
-      </c>
-      <c r="F133" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6">
-      <c r="A134">
-        <v>19330051920418</v>
-      </c>
-      <c r="B134" t="s">
-        <v>80</v>
-      </c>
-      <c r="C134" t="s">
-        <v>103</v>
-      </c>
-      <c r="D134" t="s">
-        <v>131</v>
-      </c>
-      <c r="E134" t="s">
-        <v>5</v>
-      </c>
-      <c r="F134" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6">
-      <c r="A135">
-        <v>19330051920418</v>
-      </c>
-      <c r="B135" t="s">
-        <v>80</v>
-      </c>
-      <c r="C135" t="s">
-        <v>103</v>
-      </c>
-      <c r="D135" t="s">
-        <v>131</v>
-      </c>
-      <c r="E135" t="s">
-        <v>9</v>
-      </c>
-      <c r="F135" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6">
-      <c r="A136">
-        <v>19330051920076</v>
-      </c>
-      <c r="B136" t="s">
-        <v>81</v>
-      </c>
-      <c r="C136" t="s">
-        <v>104</v>
-      </c>
-      <c r="D136" t="s">
-        <v>120</v>
-      </c>
-      <c r="E136" t="s">
-        <v>10</v>
-      </c>
-      <c r="F136" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6">
-      <c r="A137">
-        <v>19330051920076</v>
-      </c>
-      <c r="B137" t="s">
-        <v>81</v>
-      </c>
-      <c r="C137" t="s">
-        <v>104</v>
-      </c>
-      <c r="D137" t="s">
-        <v>120</v>
-      </c>
-      <c r="E137" t="s">
-        <v>9</v>
-      </c>
-      <c r="F137" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6">
-      <c r="A138">
-        <v>19330051920076</v>
-      </c>
-      <c r="B138" t="s">
-        <v>81</v>
-      </c>
-      <c r="C138" t="s">
-        <v>104</v>
-      </c>
-      <c r="D138" t="s">
-        <v>120</v>
-      </c>
-      <c r="E138" t="s">
-        <v>5</v>
-      </c>
-      <c r="F138" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6">
-      <c r="A139">
-        <v>19330051920076</v>
-      </c>
-      <c r="B139" t="s">
-        <v>81</v>
-      </c>
-      <c r="C139" t="s">
-        <v>104</v>
-      </c>
-      <c r="D139" t="s">
-        <v>120</v>
-      </c>
-      <c r="E139" t="s">
-        <v>8</v>
-      </c>
-      <c r="F139" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6">
-      <c r="A140">
-        <v>19330051920076</v>
-      </c>
-      <c r="B140" t="s">
-        <v>81</v>
-      </c>
-      <c r="C140" t="s">
-        <v>104</v>
-      </c>
-      <c r="D140" t="s">
-        <v>120</v>
-      </c>
-      <c r="E140" t="s">
-        <v>6</v>
-      </c>
-      <c r="F140" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6">
-      <c r="A141">
-        <v>19330051920076</v>
-      </c>
-      <c r="B141" t="s">
-        <v>81</v>
-      </c>
-      <c r="C141" t="s">
-        <v>104</v>
-      </c>
-      <c r="D141" t="s">
-        <v>120</v>
-      </c>
-      <c r="E141" t="s">
-        <v>7</v>
-      </c>
-      <c r="F141" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6">
-      <c r="A142">
-        <v>18330051920029</v>
-      </c>
-      <c r="B142" t="s">
-        <v>82</v>
-      </c>
-      <c r="C142" t="s">
-        <v>105</v>
-      </c>
-      <c r="D142" t="s">
-        <v>132</v>
-      </c>
-      <c r="E142" t="s">
-        <v>8</v>
-      </c>
-      <c r="F142" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6">
-      <c r="A143">
-        <v>18330051920029</v>
-      </c>
-      <c r="B143" t="s">
-        <v>82</v>
-      </c>
-      <c r="C143" t="s">
-        <v>105</v>
-      </c>
-      <c r="D143" t="s">
-        <v>132</v>
-      </c>
-      <c r="E143" t="s">
-        <v>4</v>
-      </c>
-      <c r="F143" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6">
-      <c r="A144">
-        <v>18330051920029</v>
-      </c>
-      <c r="B144" t="s">
-        <v>82</v>
-      </c>
-      <c r="C144" t="s">
-        <v>105</v>
-      </c>
-      <c r="D144" t="s">
-        <v>132</v>
-      </c>
-      <c r="E144" t="s">
-        <v>6</v>
-      </c>
-      <c r="F144" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6">
-      <c r="A145">
-        <v>18330051920029</v>
-      </c>
-      <c r="B145" t="s">
-        <v>82</v>
-      </c>
-      <c r="C145" t="s">
-        <v>105</v>
-      </c>
-      <c r="D145" t="s">
-        <v>132</v>
-      </c>
-      <c r="E145" t="s">
-        <v>10</v>
-      </c>
-      <c r="F145" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6">
-      <c r="A146">
-        <v>18330051920029</v>
-      </c>
-      <c r="B146" t="s">
-        <v>82</v>
-      </c>
-      <c r="C146" t="s">
-        <v>105</v>
-      </c>
-      <c r="D146" t="s">
-        <v>132</v>
-      </c>
-      <c r="E146" t="s">
-        <v>7</v>
-      </c>
-      <c r="F146" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6">
-      <c r="A147">
-        <v>18330051920029</v>
-      </c>
-      <c r="B147" t="s">
-        <v>82</v>
-      </c>
-      <c r="C147" t="s">
-        <v>105</v>
-      </c>
-      <c r="D147" t="s">
-        <v>132</v>
-      </c>
-      <c r="E147" t="s">
-        <v>5</v>
-      </c>
-      <c r="F147" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6">
-      <c r="A148">
-        <v>18330051920029</v>
-      </c>
-      <c r="B148" t="s">
-        <v>82</v>
-      </c>
-      <c r="C148" t="s">
-        <v>105</v>
-      </c>
-      <c r="D148" t="s">
-        <v>132</v>
-      </c>
-      <c r="E148" t="s">
-        <v>9</v>
-      </c>
-      <c r="F148" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6">
-      <c r="A149">
-        <v>19330051920079</v>
-      </c>
-      <c r="B149" t="s">
-        <v>83</v>
-      </c>
-      <c r="C149" t="s">
-        <v>106</v>
-      </c>
-      <c r="D149" t="s">
-        <v>133</v>
-      </c>
-      <c r="E149" t="s">
-        <v>8</v>
-      </c>
-      <c r="F149" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6">
-      <c r="A150">
-        <v>19330051920079</v>
-      </c>
-      <c r="B150" t="s">
-        <v>83</v>
-      </c>
-      <c r="C150" t="s">
-        <v>106</v>
-      </c>
-      <c r="D150" t="s">
-        <v>133</v>
-      </c>
-      <c r="E150" t="s">
-        <v>9</v>
-      </c>
-      <c r="F150" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6">
-      <c r="A151">
-        <v>19330051920079</v>
-      </c>
-      <c r="B151" t="s">
-        <v>83</v>
-      </c>
-      <c r="C151" t="s">
-        <v>106</v>
-      </c>
-      <c r="D151" t="s">
-        <v>133</v>
-      </c>
-      <c r="E151" t="s">
-        <v>4</v>
-      </c>
-      <c r="F151" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6">
-      <c r="A152">
-        <v>19330051920079</v>
-      </c>
-      <c r="B152" t="s">
-        <v>83</v>
-      </c>
-      <c r="C152" t="s">
-        <v>106</v>
-      </c>
-      <c r="D152" t="s">
-        <v>133</v>
-      </c>
-      <c r="E152" t="s">
-        <v>5</v>
-      </c>
-      <c r="F152" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6">
-      <c r="A153">
-        <v>19330051920079</v>
-      </c>
-      <c r="B153" t="s">
-        <v>83</v>
-      </c>
-      <c r="C153" t="s">
-        <v>106</v>
-      </c>
-      <c r="D153" t="s">
-        <v>133</v>
-      </c>
-      <c r="E153" t="s">
-        <v>7</v>
-      </c>
-      <c r="F153" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6">
-      <c r="A154">
-        <v>19330051920079</v>
-      </c>
-      <c r="B154" t="s">
-        <v>83</v>
-      </c>
-      <c r="C154" t="s">
-        <v>106</v>
-      </c>
-      <c r="D154" t="s">
-        <v>133</v>
-      </c>
-      <c r="E154" t="s">
-        <v>10</v>
-      </c>
-      <c r="F154" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6">
-      <c r="A155">
-        <v>19330051920079</v>
-      </c>
-      <c r="B155" t="s">
-        <v>83</v>
-      </c>
-      <c r="C155" t="s">
-        <v>106</v>
-      </c>
-      <c r="D155" t="s">
-        <v>133</v>
-      </c>
-      <c r="E155" t="s">
-        <v>6</v>
-      </c>
-      <c r="F155" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6">
-      <c r="A156">
-        <v>19330051920081</v>
-      </c>
-      <c r="B156" t="s">
-        <v>84</v>
-      </c>
-      <c r="C156" t="s">
-        <v>79</v>
-      </c>
-      <c r="D156" t="s">
-        <v>134</v>
-      </c>
-      <c r="E156" t="s">
-        <v>8</v>
-      </c>
-      <c r="F156" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6">
-      <c r="A157">
-        <v>19330051920081</v>
-      </c>
-      <c r="B157" t="s">
-        <v>84</v>
-      </c>
-      <c r="C157" t="s">
-        <v>79</v>
-      </c>
-      <c r="D157" t="s">
-        <v>134</v>
-      </c>
-      <c r="E157" t="s">
-        <v>10</v>
-      </c>
-      <c r="F157" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6">
-      <c r="A158">
-        <v>19330051920081</v>
-      </c>
-      <c r="B158" t="s">
-        <v>84</v>
-      </c>
-      <c r="C158" t="s">
-        <v>79</v>
-      </c>
-      <c r="D158" t="s">
-        <v>134</v>
-      </c>
-      <c r="E158" t="s">
-        <v>4</v>
-      </c>
-      <c r="F158" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6">
-      <c r="A159">
-        <v>19330051920081</v>
-      </c>
-      <c r="B159" t="s">
-        <v>84</v>
-      </c>
-      <c r="C159" t="s">
-        <v>79</v>
-      </c>
-      <c r="D159" t="s">
-        <v>134</v>
-      </c>
-      <c r="E159" t="s">
-        <v>6</v>
-      </c>
-      <c r="F159" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6">
-      <c r="A160">
-        <v>19330051920081</v>
-      </c>
-      <c r="B160" t="s">
-        <v>84</v>
-      </c>
-      <c r="C160" t="s">
-        <v>79</v>
-      </c>
-      <c r="D160" t="s">
-        <v>134</v>
-      </c>
-      <c r="E160" t="s">
-        <v>5</v>
-      </c>
-      <c r="F160" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6">
-      <c r="A161">
-        <v>19330051920081</v>
-      </c>
-      <c r="B161" t="s">
-        <v>84</v>
-      </c>
-      <c r="C161" t="s">
-        <v>79</v>
-      </c>
-      <c r="D161" t="s">
-        <v>134</v>
-      </c>
-      <c r="E161" t="s">
-        <v>9</v>
-      </c>
-      <c r="F161" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -6420,7 +5266,7 @@
         <v>107</v>
       </c>
       <c r="E2">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -6437,7 +5283,7 @@
         <v>110</v>
       </c>
       <c r="E3">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -6454,7 +5300,7 @@
         <v>111</v>
       </c>
       <c r="E4">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -6471,7 +5317,7 @@
         <v>112</v>
       </c>
       <c r="E5">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -6485,10 +5331,10 @@
         <v>95</v>
       </c>
       <c r="D6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E6">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -6502,10 +5348,10 @@
         <v>74</v>
       </c>
       <c r="D7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E7">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -6519,10 +5365,10 @@
         <v>96</v>
       </c>
       <c r="D8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E8">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -6536,10 +5382,10 @@
         <v>98</v>
       </c>
       <c r="D9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E9">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -6553,10 +5399,10 @@
         <v>101</v>
       </c>
       <c r="D10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E10">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -6570,10 +5416,10 @@
         <v>105</v>
       </c>
       <c r="D11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E11">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -6587,10 +5433,10 @@
         <v>106</v>
       </c>
       <c r="D12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E12">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -6607,7 +5453,7 @@
         <v>108</v>
       </c>
       <c r="E13">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -6621,10 +5467,10 @@
         <v>97</v>
       </c>
       <c r="D14" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E14">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -6638,10 +5484,10 @@
         <v>99</v>
       </c>
       <c r="D15" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E15">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -6655,10 +5501,10 @@
         <v>102</v>
       </c>
       <c r="D16" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E16">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -6672,10 +5518,10 @@
         <v>103</v>
       </c>
       <c r="D17" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E17">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -6689,10 +5535,10 @@
         <v>104</v>
       </c>
       <c r="D18" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="E18">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -6706,10 +5552,10 @@
         <v>79</v>
       </c>
       <c r="D19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E19">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -6726,7 +5572,7 @@
         <v>114</v>
       </c>
       <c r="E20">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -6743,7 +5589,7 @@
         <v>117</v>
       </c>
       <c r="E21">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -6757,10 +5603,10 @@
         <v>100</v>
       </c>
       <c r="D22" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E22">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -6774,10 +5620,10 @@
         <v>63</v>
       </c>
       <c r="D23" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E23">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -6794,7 +5640,7 @@
         <v>109</v>
       </c>
       <c r="E24">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -6808,10 +5654,10 @@
         <v>94</v>
       </c>
       <c r="D25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E25">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -6828,7 +5674,7 @@
         <v>113</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -6845,7 +5691,7 @@
         <v>115</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -6862,7 +5708,7 @@
         <v>116</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -6876,10 +5722,10 @@
         <v>61</v>
       </c>
       <c r="D29" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -6893,10 +5739,10 @@
         <v>70</v>
       </c>
       <c r="D30" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -6906,7 +5752,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6941,22 +5787,22 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>19330051920058</v>
+        <v>19330051920046</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="D2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G2">
         <v>-1</v>
@@ -6964,19 +5810,19 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>19330051920058</v>
+        <v>19330051920046</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="D3" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F3" t="s">
         <v>50</v>
@@ -6987,47 +5833,139 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>19330051920059</v>
+        <v>19330051920057</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="D4" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G4">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>19330051920059</v>
+        <v>19330051920057</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C5" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="D5" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F5" t="s">
         <v>50</v>
       </c>
       <c r="G5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>19330051920060</v>
+      </c>
+      <c r="B6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" t="s">
+        <v>118</v>
+      </c>
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>19330051920060</v>
+      </c>
+      <c r="B7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>19330051920053</v>
+      </c>
+      <c r="B8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" t="s">
+        <v>113</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>19330051920056</v>
+      </c>
+      <c r="B9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" t="s">
+        <v>116</v>
+      </c>
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9">
         <v>-1</v>
       </c>
     </row>

--- a/grupos/4AEV - Estadisticos 2020.xlsx
+++ b/grupos/4AEV - Estadisticos 2020.xlsx
@@ -3192,10 +3192,10 @@
         <v>107</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3232,10 +3232,10 @@
         <v>107</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3252,10 +3252,10 @@
         <v>107</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3272,10 +3272,10 @@
         <v>107</v>
       </c>
       <c r="E6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3292,10 +3292,10 @@
         <v>108</v>
       </c>
       <c r="E7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3312,10 +3312,10 @@
         <v>108</v>
       </c>
       <c r="E8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3332,10 +3332,10 @@
         <v>108</v>
       </c>
       <c r="E9" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F9" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3352,10 +3352,10 @@
         <v>108</v>
       </c>
       <c r="E10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3412,10 +3412,10 @@
         <v>110</v>
       </c>
       <c r="E13" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -3432,10 +3432,10 @@
         <v>110</v>
       </c>
       <c r="E14" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F14" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -3452,10 +3452,10 @@
         <v>110</v>
       </c>
       <c r="E15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F15" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -3492,10 +3492,10 @@
         <v>110</v>
       </c>
       <c r="E17" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F17" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -3512,10 +3512,10 @@
         <v>111</v>
       </c>
       <c r="E18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F18" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -3552,10 +3552,10 @@
         <v>111</v>
       </c>
       <c r="E20" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -3572,10 +3572,10 @@
         <v>111</v>
       </c>
       <c r="E21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F21" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -3592,10 +3592,10 @@
         <v>111</v>
       </c>
       <c r="E22" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F22" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -3612,10 +3612,10 @@
         <v>112</v>
       </c>
       <c r="E23" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F23" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -3632,10 +3632,10 @@
         <v>112</v>
       </c>
       <c r="E24" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F24" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -3672,10 +3672,10 @@
         <v>112</v>
       </c>
       <c r="E26" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F26" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -3692,10 +3692,10 @@
         <v>112</v>
       </c>
       <c r="E27" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F27" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -3732,10 +3732,10 @@
         <v>114</v>
       </c>
       <c r="E29" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F29" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -3752,10 +3752,10 @@
         <v>114</v>
       </c>
       <c r="E30" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F30" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -3772,10 +3772,10 @@
         <v>114</v>
       </c>
       <c r="E31" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F31" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -3832,10 +3832,10 @@
         <v>117</v>
       </c>
       <c r="E34" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -3852,10 +3852,10 @@
         <v>117</v>
       </c>
       <c r="E35" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F35" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -3932,10 +3932,10 @@
         <v>119</v>
       </c>
       <c r="E39" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F39" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -3952,10 +3952,10 @@
         <v>119</v>
       </c>
       <c r="E40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F40" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -3992,10 +3992,10 @@
         <v>119</v>
       </c>
       <c r="E42" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F42" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -4012,10 +4012,10 @@
         <v>119</v>
       </c>
       <c r="E43" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F43" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -4052,10 +4052,10 @@
         <v>120</v>
       </c>
       <c r="E45" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F45" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -4072,10 +4072,10 @@
         <v>120</v>
       </c>
       <c r="E46" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F46" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -4092,10 +4092,10 @@
         <v>120</v>
       </c>
       <c r="E47" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F47" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -4112,10 +4112,10 @@
         <v>120</v>
       </c>
       <c r="E48" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F48" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -4132,10 +4132,10 @@
         <v>121</v>
       </c>
       <c r="E49" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F49" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -4152,10 +4152,10 @@
         <v>121</v>
       </c>
       <c r="E50" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F50" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -4192,10 +4192,10 @@
         <v>121</v>
       </c>
       <c r="E52" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F52" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -4232,10 +4232,10 @@
         <v>122</v>
       </c>
       <c r="E54" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F54" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -4252,10 +4252,10 @@
         <v>122</v>
       </c>
       <c r="E55" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F55" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -4272,10 +4272,10 @@
         <v>122</v>
       </c>
       <c r="E56" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F56" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -4292,10 +4292,10 @@
         <v>122</v>
       </c>
       <c r="E57" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F57" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -4312,10 +4312,10 @@
         <v>123</v>
       </c>
       <c r="E58" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F58" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -4332,10 +4332,10 @@
         <v>123</v>
       </c>
       <c r="E59" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F59" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -4352,10 +4352,10 @@
         <v>123</v>
       </c>
       <c r="E60" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F60" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -4372,10 +4372,10 @@
         <v>123</v>
       </c>
       <c r="E61" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F61" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -4392,10 +4392,10 @@
         <v>123</v>
       </c>
       <c r="E62" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F62" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -4412,10 +4412,10 @@
         <v>124</v>
       </c>
       <c r="E63" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F63" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -4432,10 +4432,10 @@
         <v>124</v>
       </c>
       <c r="E64" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F64" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -4452,10 +4452,10 @@
         <v>124</v>
       </c>
       <c r="E65" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F65" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -4472,10 +4472,10 @@
         <v>124</v>
       </c>
       <c r="E66" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F66" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -4552,10 +4552,10 @@
         <v>126</v>
       </c>
       <c r="E70" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F70" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -4592,10 +4592,10 @@
         <v>126</v>
       </c>
       <c r="E72" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F72" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -4612,10 +4612,10 @@
         <v>126</v>
       </c>
       <c r="E73" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F73" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -4632,10 +4632,10 @@
         <v>126</v>
       </c>
       <c r="E74" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F74" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -4752,10 +4752,10 @@
         <v>128</v>
       </c>
       <c r="E80" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F80" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -4772,10 +4772,10 @@
         <v>128</v>
       </c>
       <c r="E81" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F81" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -4792,10 +4792,10 @@
         <v>129</v>
       </c>
       <c r="E82" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F82" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -4812,10 +4812,10 @@
         <v>129</v>
       </c>
       <c r="E83" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F83" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -4852,10 +4852,10 @@
         <v>129</v>
       </c>
       <c r="E85" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F85" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -4952,10 +4952,10 @@
         <v>131</v>
       </c>
       <c r="E90" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F90" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -4972,10 +4972,10 @@
         <v>131</v>
       </c>
       <c r="E91" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F91" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -4992,10 +4992,10 @@
         <v>131</v>
       </c>
       <c r="E92" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F92" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -5012,10 +5012,10 @@
         <v>131</v>
       </c>
       <c r="E93" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F93" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -5052,10 +5052,10 @@
         <v>132</v>
       </c>
       <c r="E95" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F95" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -5072,10 +5072,10 @@
         <v>132</v>
       </c>
       <c r="E96" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F96" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -5092,10 +5092,10 @@
         <v>132</v>
       </c>
       <c r="E97" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F97" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -5112,10 +5112,10 @@
         <v>132</v>
       </c>
       <c r="E98" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F98" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -5152,10 +5152,10 @@
         <v>133</v>
       </c>
       <c r="E100" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F100" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -5172,10 +5172,10 @@
         <v>133</v>
       </c>
       <c r="E101" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F101" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -5212,10 +5212,10 @@
         <v>133</v>
       </c>
       <c r="E103" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F103" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/grupos/4AEV - Estadisticos 2020.xlsx
+++ b/grupos/4AEV - Estadisticos 2020.xlsx
@@ -3192,10 +3192,10 @@
         <v>107</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3232,10 +3232,10 @@
         <v>107</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3252,10 +3252,10 @@
         <v>107</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3272,10 +3272,10 @@
         <v>107</v>
       </c>
       <c r="E6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3292,10 +3292,10 @@
         <v>108</v>
       </c>
       <c r="E7" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3312,10 +3312,10 @@
         <v>108</v>
       </c>
       <c r="E8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3332,10 +3332,10 @@
         <v>108</v>
       </c>
       <c r="E9" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3352,10 +3352,10 @@
         <v>108</v>
       </c>
       <c r="E10" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3412,10 +3412,10 @@
         <v>110</v>
       </c>
       <c r="E13" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -3452,10 +3452,10 @@
         <v>110</v>
       </c>
       <c r="E15" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -3472,10 +3472,10 @@
         <v>110</v>
       </c>
       <c r="E16" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F16" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -3492,10 +3492,10 @@
         <v>110</v>
       </c>
       <c r="E17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F17" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -3512,10 +3512,10 @@
         <v>111</v>
       </c>
       <c r="E18" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F18" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -3532,10 +3532,10 @@
         <v>111</v>
       </c>
       <c r="E19" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F19" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -3552,10 +3552,10 @@
         <v>111</v>
       </c>
       <c r="E20" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -3572,10 +3572,10 @@
         <v>111</v>
       </c>
       <c r="E21" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F21" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -3592,10 +3592,10 @@
         <v>111</v>
       </c>
       <c r="E22" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F22" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -3612,10 +3612,10 @@
         <v>112</v>
       </c>
       <c r="E23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -3632,10 +3632,10 @@
         <v>112</v>
       </c>
       <c r="E24" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F24" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -3652,10 +3652,10 @@
         <v>112</v>
       </c>
       <c r="E25" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F25" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -3732,10 +3732,10 @@
         <v>114</v>
       </c>
       <c r="E29" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -3772,10 +3772,10 @@
         <v>114</v>
       </c>
       <c r="E31" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F31" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -3932,10 +3932,10 @@
         <v>119</v>
       </c>
       <c r="E39" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F39" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -3952,10 +3952,10 @@
         <v>119</v>
       </c>
       <c r="E40" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F40" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -3972,10 +3972,10 @@
         <v>119</v>
       </c>
       <c r="E41" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F41" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -3992,10 +3992,10 @@
         <v>119</v>
       </c>
       <c r="E42" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F42" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -4012,10 +4012,10 @@
         <v>119</v>
       </c>
       <c r="E43" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F43" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -4052,10 +4052,10 @@
         <v>120</v>
       </c>
       <c r="E45" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F45" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -4072,10 +4072,10 @@
         <v>120</v>
       </c>
       <c r="E46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F46" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -4092,10 +4092,10 @@
         <v>120</v>
       </c>
       <c r="E47" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F47" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -4112,10 +4112,10 @@
         <v>120</v>
       </c>
       <c r="E48" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F48" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -4152,10 +4152,10 @@
         <v>121</v>
       </c>
       <c r="E50" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F50" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -4172,10 +4172,10 @@
         <v>121</v>
       </c>
       <c r="E51" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F51" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -4192,10 +4192,10 @@
         <v>121</v>
       </c>
       <c r="E52" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F52" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -4212,10 +4212,10 @@
         <v>121</v>
       </c>
       <c r="E53" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F53" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -4252,10 +4252,10 @@
         <v>122</v>
       </c>
       <c r="E55" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F55" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -4272,10 +4272,10 @@
         <v>122</v>
       </c>
       <c r="E56" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F56" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -4292,10 +4292,10 @@
         <v>122</v>
       </c>
       <c r="E57" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F57" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -4312,10 +4312,10 @@
         <v>123</v>
       </c>
       <c r="E58" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F58" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -4332,10 +4332,10 @@
         <v>123</v>
       </c>
       <c r="E59" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F59" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -4352,10 +4352,10 @@
         <v>123</v>
       </c>
       <c r="E60" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F60" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -4372,10 +4372,10 @@
         <v>123</v>
       </c>
       <c r="E61" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F61" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -4392,10 +4392,10 @@
         <v>123</v>
       </c>
       <c r="E62" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F62" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -4432,10 +4432,10 @@
         <v>124</v>
       </c>
       <c r="E64" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F64" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -4452,10 +4452,10 @@
         <v>124</v>
       </c>
       <c r="E65" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F65" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -4472,10 +4472,10 @@
         <v>124</v>
       </c>
       <c r="E66" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F66" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -4492,10 +4492,10 @@
         <v>125</v>
       </c>
       <c r="E67" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F67" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -4532,10 +4532,10 @@
         <v>125</v>
       </c>
       <c r="E69" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F69" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -4552,10 +4552,10 @@
         <v>126</v>
       </c>
       <c r="E70" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F70" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -4572,10 +4572,10 @@
         <v>126</v>
       </c>
       <c r="E71" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F71" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -4592,10 +4592,10 @@
         <v>126</v>
       </c>
       <c r="E72" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F72" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -4612,10 +4612,10 @@
         <v>126</v>
       </c>
       <c r="E73" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F73" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -4632,10 +4632,10 @@
         <v>126</v>
       </c>
       <c r="E74" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F74" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -4672,10 +4672,10 @@
         <v>127</v>
       </c>
       <c r="E76" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F76" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -4692,10 +4692,10 @@
         <v>127</v>
       </c>
       <c r="E77" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F77" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -4712,10 +4712,10 @@
         <v>128</v>
       </c>
       <c r="E78" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F78" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -4752,10 +4752,10 @@
         <v>128</v>
       </c>
       <c r="E80" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F80" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -4772,10 +4772,10 @@
         <v>128</v>
       </c>
       <c r="E81" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F81" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -4792,10 +4792,10 @@
         <v>129</v>
       </c>
       <c r="E82" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F82" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -4812,10 +4812,10 @@
         <v>129</v>
       </c>
       <c r="E83" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F83" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -4832,10 +4832,10 @@
         <v>129</v>
       </c>
       <c r="E84" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F84" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -4872,10 +4872,10 @@
         <v>130</v>
       </c>
       <c r="E86" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F86" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -4892,10 +4892,10 @@
         <v>130</v>
       </c>
       <c r="E87" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F87" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -4952,10 +4952,10 @@
         <v>131</v>
       </c>
       <c r="E90" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F90" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -4972,10 +4972,10 @@
         <v>131</v>
       </c>
       <c r="E91" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F91" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -4992,10 +4992,10 @@
         <v>131</v>
       </c>
       <c r="E92" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F92" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -5012,10 +5012,10 @@
         <v>131</v>
       </c>
       <c r="E93" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F93" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -5032,10 +5032,10 @@
         <v>131</v>
       </c>
       <c r="E94" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F94" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -5052,10 +5052,10 @@
         <v>132</v>
       </c>
       <c r="E95" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F95" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -5072,10 +5072,10 @@
         <v>132</v>
       </c>
       <c r="E96" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F96" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -5092,10 +5092,10 @@
         <v>132</v>
       </c>
       <c r="E97" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F97" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -5112,10 +5112,10 @@
         <v>132</v>
       </c>
       <c r="E98" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F98" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -5132,10 +5132,10 @@
         <v>132</v>
       </c>
       <c r="E99" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F99" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -5152,10 +5152,10 @@
         <v>133</v>
       </c>
       <c r="E100" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F100" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -5192,10 +5192,10 @@
         <v>133</v>
       </c>
       <c r="E102" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F102" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -5212,10 +5212,10 @@
         <v>133</v>
       </c>
       <c r="E103" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F103" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/grupos/4AEV - Estadisticos 2020.xlsx
+++ b/grupos/4AEV - Estadisticos 2020.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="135">
   <si>
     <t>Materia</t>
   </si>
@@ -218,208 +218,208 @@
     <t>DORANTES</t>
   </si>
   <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
+    <t>GUTIERREZ</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>HUERTA</t>
+  </si>
+  <si>
+    <t>DE JESUS</t>
+  </si>
+  <si>
+    <t>LARA</t>
+  </si>
+  <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>MEDRANO</t>
+  </si>
+  <si>
+    <t>MORALES</t>
+  </si>
+  <si>
+    <t>PEREZ</t>
+  </si>
+  <si>
+    <t>REYES</t>
+  </si>
+  <si>
+    <t>ROMERO</t>
+  </si>
+  <si>
+    <t>SAN JUAN</t>
+  </si>
+  <si>
+    <t>SOLANO</t>
+  </si>
+  <si>
+    <t>TEQUIHUATLE</t>
+  </si>
+  <si>
+    <t>TZOMPAXTLE</t>
+  </si>
+  <si>
+    <t>VAZQUEZ</t>
+  </si>
+  <si>
+    <t>NUÑEZ</t>
+  </si>
+  <si>
+    <t>DE LOS SANTOS</t>
+  </si>
+  <si>
+    <t>TZOYONTLE</t>
+  </si>
+  <si>
+    <t>GALVEZ</t>
+  </si>
+  <si>
+    <t>ARIAS</t>
+  </si>
+  <si>
+    <t>VALIENTE</t>
+  </si>
+  <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
+    <t>PAZ</t>
+  </si>
+  <si>
+    <t>CID</t>
+  </si>
+  <si>
+    <t>ZEPAHUA</t>
+  </si>
+  <si>
+    <t>VILLAR</t>
+  </si>
+  <si>
+    <t>MONTERO</t>
+  </si>
+  <si>
+    <t>PACHECO</t>
+  </si>
+  <si>
+    <t>LOZANO</t>
+  </si>
+  <si>
+    <t>HERRERA</t>
+  </si>
+  <si>
+    <t>XILCAHUA</t>
+  </si>
+  <si>
+    <t>CORTES</t>
+  </si>
+  <si>
+    <t>CANSECO</t>
+  </si>
+  <si>
+    <t>NOGALES</t>
+  </si>
+  <si>
+    <t>CASTILLO</t>
+  </si>
+  <si>
+    <t>CUANECUILE</t>
+  </si>
+  <si>
+    <t>KARLA IRAN</t>
+  </si>
+  <si>
+    <t>EUSEBIO</t>
+  </si>
+  <si>
+    <t>ALMA LIZETH</t>
+  </si>
+  <si>
+    <t>JESUS ISRAEL</t>
+  </si>
+  <si>
+    <t>LUIS ARIEL</t>
+  </si>
+  <si>
+    <t>LUIS ALBERTO</t>
+  </si>
+  <si>
+    <t>GERARDO RAUL</t>
+  </si>
+  <si>
+    <t>JONATHAN</t>
+  </si>
+  <si>
+    <t>MARTIN</t>
+  </si>
+  <si>
+    <t>ISAAC ALESSANDRO</t>
+  </si>
+  <si>
+    <t>ELIUTH ADELFO</t>
+  </si>
+  <si>
+    <t>JOSE ANTONIO</t>
+  </si>
+  <si>
+    <t>SALOMON</t>
+  </si>
+  <si>
+    <t>VICTOR SAUL</t>
+  </si>
+  <si>
+    <t>ALEXIS YAIR</t>
+  </si>
+  <si>
+    <t>EMMANUEL</t>
+  </si>
+  <si>
+    <t>JOSE DANIEL</t>
+  </si>
+  <si>
+    <t>JUAN EFRAIN</t>
+  </si>
+  <si>
+    <t>JUAN CARLOS</t>
+  </si>
+  <si>
+    <t>IVAN</t>
+  </si>
+  <si>
+    <t>ARTURO</t>
+  </si>
+  <si>
+    <t>MARTI NEFTALI</t>
+  </si>
+  <si>
+    <t>AGUSTIN</t>
+  </si>
+  <si>
+    <t>SAUL</t>
+  </si>
+  <si>
+    <t>OSVALDO</t>
+  </si>
+  <si>
+    <t>MONSERRAT</t>
+  </si>
+  <si>
     <t>ESPINOSA</t>
   </si>
   <si>
-    <t>GARCIA</t>
-  </si>
-  <si>
-    <t>GONZALEZ</t>
-  </si>
-  <si>
-    <t>GUTIERREZ</t>
-  </si>
-  <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>HUERTA</t>
-  </si>
-  <si>
-    <t>DE JESUS</t>
-  </si>
-  <si>
-    <t>LARA</t>
-  </si>
-  <si>
-    <t>MARTINEZ</t>
-  </si>
-  <si>
-    <t>MEDRANO</t>
-  </si>
-  <si>
-    <t>MORALES</t>
-  </si>
-  <si>
-    <t>PEREZ</t>
-  </si>
-  <si>
-    <t>REYES</t>
-  </si>
-  <si>
-    <t>ROMERO</t>
-  </si>
-  <si>
-    <t>SAN JUAN</t>
-  </si>
-  <si>
-    <t>SOLANO</t>
-  </si>
-  <si>
-    <t>TEQUIHUATLE</t>
-  </si>
-  <si>
-    <t>TZOMPAXTLE</t>
-  </si>
-  <si>
-    <t>VAZQUEZ</t>
-  </si>
-  <si>
-    <t>NUÑEZ</t>
-  </si>
-  <si>
-    <t>DE LOS SANTOS</t>
-  </si>
-  <si>
-    <t>TZOYONTLE</t>
-  </si>
-  <si>
-    <t>GALVEZ</t>
-  </si>
-  <si>
-    <t>ARIAS</t>
-  </si>
-  <si>
     <t>TZOPITL</t>
   </si>
   <si>
-    <t>VALIENTE</t>
-  </si>
-  <si>
-    <t>SANCHEZ</t>
-  </si>
-  <si>
-    <t>PAZ</t>
-  </si>
-  <si>
-    <t>CID</t>
-  </si>
-  <si>
-    <t>ZEPAHUA</t>
-  </si>
-  <si>
-    <t>VILLAR</t>
-  </si>
-  <si>
-    <t>MONTERO</t>
-  </si>
-  <si>
-    <t>PACHECO</t>
-  </si>
-  <si>
-    <t>LOZANO</t>
-  </si>
-  <si>
-    <t>HERRERA</t>
-  </si>
-  <si>
-    <t>XILCAHUA</t>
-  </si>
-  <si>
-    <t>CORTES</t>
-  </si>
-  <si>
-    <t>CANSECO</t>
-  </si>
-  <si>
-    <t>NOGALES</t>
-  </si>
-  <si>
-    <t>CASTILLO</t>
-  </si>
-  <si>
-    <t>CUANECUILE</t>
-  </si>
-  <si>
-    <t>KARLA IRAN</t>
-  </si>
-  <si>
-    <t>EUSEBIO</t>
-  </si>
-  <si>
-    <t>ALMA LIZETH</t>
-  </si>
-  <si>
-    <t>JESUS ISRAEL</t>
-  </si>
-  <si>
-    <t>LUIS ARIEL</t>
-  </si>
-  <si>
-    <t>LUIS ALBERTO</t>
-  </si>
-  <si>
     <t>YASIEL</t>
-  </si>
-  <si>
-    <t>GERARDO RAUL</t>
-  </si>
-  <si>
-    <t>JONATHAN</t>
-  </si>
-  <si>
-    <t>MARTIN</t>
-  </si>
-  <si>
-    <t>ISAAC ALESSANDRO</t>
-  </si>
-  <si>
-    <t>ELIUTH ADELFO</t>
-  </si>
-  <si>
-    <t>JOSE ANTONIO</t>
-  </si>
-  <si>
-    <t>SALOMON</t>
-  </si>
-  <si>
-    <t>VICTOR SAUL</t>
-  </si>
-  <si>
-    <t>ALEXIS YAIR</t>
-  </si>
-  <si>
-    <t>EMMANUEL</t>
-  </si>
-  <si>
-    <t>JOSE DANIEL</t>
-  </si>
-  <si>
-    <t>JUAN EFRAIN</t>
-  </si>
-  <si>
-    <t>JUAN CARLOS</t>
-  </si>
-  <si>
-    <t>IVAN</t>
-  </si>
-  <si>
-    <t>ARTURO</t>
-  </si>
-  <si>
-    <t>MARTI NEFTALI</t>
-  </si>
-  <si>
-    <t>AGUSTIN</t>
-  </si>
-  <si>
-    <t>SAUL</t>
-  </si>
-  <si>
-    <t>OSVALDO</t>
-  </si>
-  <si>
-    <t>MONSERRAT</t>
   </si>
   <si>
     <t>ALEXIS ARMANDO</t>
@@ -1403,7 +1403,7 @@
         <v>9</v>
       </c>
       <c r="L11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M11">
         <v>8</v>
@@ -1994,7 +1994,7 @@
         <v>7</v>
       </c>
       <c r="E20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="F20">
         <v>6</v>
@@ -2015,7 +2015,7 @@
         <v>-1</v>
       </c>
       <c r="L20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M20">
         <v>6</v>
@@ -3056,25 +3056,25 @@
         <v>29</v>
       </c>
       <c r="D6">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F6">
-        <v>37.93</v>
+        <v>44.83</v>
       </c>
       <c r="G6">
-        <v>20.69</v>
+        <v>17.24</v>
       </c>
       <c r="H6">
         <v>6.4</v>
       </c>
       <c r="I6">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J6">
-        <v>58.62</v>
+        <v>51.72</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -3148,7 +3148,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F103"/>
+  <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3186,10 +3186,10 @@
         <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -3206,10 +3206,10 @@
         <v>60</v>
       </c>
       <c r="C3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -3226,10 +3226,10 @@
         <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E4" t="s">
         <v>5</v>
@@ -3246,10 +3246,10 @@
         <v>60</v>
       </c>
       <c r="C5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>
@@ -3266,10 +3266,10 @@
         <v>60</v>
       </c>
       <c r="C6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E6" t="s">
         <v>4</v>
@@ -3286,10 +3286,10 @@
         <v>61</v>
       </c>
       <c r="C7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
@@ -3306,10 +3306,10 @@
         <v>61</v>
       </c>
       <c r="C8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
@@ -3326,10 +3326,10 @@
         <v>61</v>
       </c>
       <c r="C9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E9" t="s">
         <v>5</v>
@@ -3346,10 +3346,10 @@
         <v>61</v>
       </c>
       <c r="C10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E10" t="s">
         <v>7</v>
@@ -3366,10 +3366,10 @@
         <v>62</v>
       </c>
       <c r="C11" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E11" t="s">
         <v>6</v>
@@ -3386,10 +3386,10 @@
         <v>62</v>
       </c>
       <c r="C12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E12" t="s">
         <v>5</v>
@@ -3409,7 +3409,7 @@
         <v>64</v>
       </c>
       <c r="D13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E13" t="s">
         <v>6</v>
@@ -3429,7 +3429,7 @@
         <v>64</v>
       </c>
       <c r="D14" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E14" t="s">
         <v>7</v>
@@ -3449,7 +3449,7 @@
         <v>64</v>
       </c>
       <c r="D15" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E15" t="s">
         <v>5</v>
@@ -3469,7 +3469,7 @@
         <v>64</v>
       </c>
       <c r="D16" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E16" t="s">
         <v>9</v>
@@ -3489,7 +3489,7 @@
         <v>64</v>
       </c>
       <c r="D17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E17" t="s">
         <v>4</v>
@@ -3506,10 +3506,10 @@
         <v>64</v>
       </c>
       <c r="C18" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D18" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E18" t="s">
         <v>5</v>
@@ -3526,10 +3526,10 @@
         <v>64</v>
       </c>
       <c r="C19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D19" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E19" t="s">
         <v>7</v>
@@ -3546,10 +3546,10 @@
         <v>64</v>
       </c>
       <c r="C20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E20" t="s">
         <v>4</v>
@@ -3566,10 +3566,10 @@
         <v>64</v>
       </c>
       <c r="C21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D21" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E21" t="s">
         <v>9</v>
@@ -3586,10 +3586,10 @@
         <v>64</v>
       </c>
       <c r="C22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D22" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E22" t="s">
         <v>6</v>
@@ -3606,10 +3606,10 @@
         <v>65</v>
       </c>
       <c r="C23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D23" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E23" t="s">
         <v>5</v>
@@ -3626,10 +3626,10 @@
         <v>65</v>
       </c>
       <c r="C24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D24" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E24" t="s">
         <v>4</v>
@@ -3646,10 +3646,10 @@
         <v>65</v>
       </c>
       <c r="C25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D25" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E25" t="s">
         <v>6</v>
@@ -3666,10 +3666,10 @@
         <v>65</v>
       </c>
       <c r="C26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D26" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E26" t="s">
         <v>9</v>
@@ -3686,10 +3686,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D27" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E27" t="s">
         <v>7</v>
@@ -3700,22 +3700,22 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28">
-        <v>19330051920053</v>
+        <v>19330051920055</v>
       </c>
       <c r="B28" t="s">
         <v>66</v>
       </c>
       <c r="C28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D28" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F28" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -3723,19 +3723,19 @@
         <v>19330051920055</v>
       </c>
       <c r="B29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C29" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D29" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E29" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F29" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -3743,53 +3743,53 @@
         <v>19330051920055</v>
       </c>
       <c r="B30" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C30" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D30" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E30" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31">
-        <v>19330051920055</v>
+        <v>19330051920057</v>
       </c>
       <c r="B31" t="s">
         <v>67</v>
       </c>
       <c r="C31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D31" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E31" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32">
-        <v>19330051920057</v>
+        <v>19330051920056</v>
       </c>
       <c r="B32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C32" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D32" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E32" t="s">
         <v>6</v>
@@ -3800,22 +3800,22 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33">
-        <v>19330051920056</v>
+        <v>18330051920022</v>
       </c>
       <c r="B33" t="s">
         <v>68</v>
       </c>
       <c r="C33" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D33" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E33" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F33" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -3823,19 +3823,19 @@
         <v>18330051920022</v>
       </c>
       <c r="B34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C34" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D34" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E34" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F34" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -3843,39 +3843,39 @@
         <v>18330051920022</v>
       </c>
       <c r="B35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C35" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D35" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E35" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F35" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36">
-        <v>18330051920022</v>
+        <v>19330051920060</v>
       </c>
       <c r="B36" t="s">
         <v>69</v>
       </c>
       <c r="C36" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D36" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E36" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F36" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -3883,39 +3883,39 @@
         <v>19330051920060</v>
       </c>
       <c r="B37" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C37" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D37" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E37" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F37" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38">
-        <v>19330051920060</v>
+        <v>19330051920061</v>
       </c>
       <c r="B38" t="s">
         <v>70</v>
       </c>
       <c r="C38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D38" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E38" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F38" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -3923,19 +3923,19 @@
         <v>19330051920061</v>
       </c>
       <c r="B39" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C39" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D39" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E39" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F39" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -3943,19 +3943,19 @@
         <v>19330051920061</v>
       </c>
       <c r="B40" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C40" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D40" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E40" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F40" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -3963,19 +3963,19 @@
         <v>19330051920061</v>
       </c>
       <c r="B41" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C41" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D41" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E41" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F41" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -3983,39 +3983,39 @@
         <v>19330051920061</v>
       </c>
       <c r="B42" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C42" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D42" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E42" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F42" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43">
-        <v>19330051920061</v>
+        <v>19330051920050</v>
       </c>
       <c r="B43" t="s">
         <v>71</v>
       </c>
       <c r="C43" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
       <c r="D43" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E43" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F43" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -4023,19 +4023,19 @@
         <v>19330051920050</v>
       </c>
       <c r="B44" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C44" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D44" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E44" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F44" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -4043,19 +4043,19 @@
         <v>19330051920050</v>
       </c>
       <c r="B45" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C45" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D45" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E45" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F45" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -4063,19 +4063,19 @@
         <v>19330051920050</v>
       </c>
       <c r="B46" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C46" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D46" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E46" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F46" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -4083,39 +4083,39 @@
         <v>19330051920050</v>
       </c>
       <c r="B47" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C47" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D47" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E47" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F47" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48">
-        <v>19330051920050</v>
+        <v>19330051920064</v>
       </c>
       <c r="B48" t="s">
         <v>72</v>
       </c>
       <c r="C48" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="D48" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E48" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F48" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -4123,19 +4123,19 @@
         <v>19330051920064</v>
       </c>
       <c r="B49" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C49" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D49" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E49" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F49" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -4143,19 +4143,19 @@
         <v>19330051920064</v>
       </c>
       <c r="B50" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C50" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D50" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E50" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F50" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -4163,59 +4163,59 @@
         <v>19330051920064</v>
       </c>
       <c r="B51" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C51" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D51" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E51" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F51" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52">
-        <v>19330051920064</v>
+        <v>19330051920067</v>
       </c>
       <c r="B52" t="s">
         <v>73</v>
       </c>
       <c r="C52" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D52" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E52" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F52" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53">
-        <v>19330051920064</v>
+        <v>19330051920067</v>
       </c>
       <c r="B53" t="s">
         <v>73</v>
       </c>
       <c r="C53" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D53" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E53" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F53" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -4223,19 +4223,19 @@
         <v>19330051920067</v>
       </c>
       <c r="B54" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C54" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D54" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E54" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F54" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -4243,53 +4243,53 @@
         <v>19330051920067</v>
       </c>
       <c r="B55" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C55" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D55" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E55" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F55" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56">
-        <v>19330051920067</v>
+        <v>19330051920068</v>
       </c>
       <c r="B56" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C56" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D56" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E56" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F56" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57">
-        <v>19330051920067</v>
+        <v>19330051920068</v>
       </c>
       <c r="B57" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C57" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D57" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E57" t="s">
         <v>5</v>
@@ -4303,19 +4303,19 @@
         <v>19330051920068</v>
       </c>
       <c r="B58" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C58" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D58" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E58" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F58" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -4323,19 +4323,19 @@
         <v>19330051920068</v>
       </c>
       <c r="B59" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C59" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D59" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E59" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F59" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -4343,59 +4343,59 @@
         <v>19330051920068</v>
       </c>
       <c r="B60" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C60" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D60" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E60" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F60" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61">
-        <v>19330051920068</v>
+        <v>19330051920069</v>
       </c>
       <c r="B61" t="s">
         <v>74</v>
       </c>
       <c r="C61" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D61" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E61" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F61" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62">
-        <v>19330051920068</v>
+        <v>19330051920069</v>
       </c>
       <c r="B62" t="s">
         <v>74</v>
       </c>
       <c r="C62" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D62" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E62" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F62" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -4403,19 +4403,19 @@
         <v>19330051920069</v>
       </c>
       <c r="B63" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C63" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D63" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E63" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F63" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -4423,33 +4423,33 @@
         <v>19330051920069</v>
       </c>
       <c r="B64" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C64" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D64" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E64" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F64" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65">
-        <v>19330051920069</v>
+        <v>19330051920071</v>
       </c>
       <c r="B65" t="s">
         <v>75</v>
       </c>
       <c r="C65" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D65" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E65" t="s">
         <v>5</v>
@@ -4460,16 +4460,16 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66">
-        <v>19330051920069</v>
+        <v>19330051920071</v>
       </c>
       <c r="B66" t="s">
         <v>75</v>
       </c>
       <c r="C66" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D66" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E66" t="s">
         <v>6</v>
@@ -4483,33 +4483,33 @@
         <v>19330051920071</v>
       </c>
       <c r="B67" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C67" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D67" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E67" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F67" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68">
-        <v>19330051920071</v>
+        <v>18330051920074</v>
       </c>
       <c r="B68" t="s">
         <v>76</v>
       </c>
       <c r="C68" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D68" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E68" t="s">
         <v>4</v>
@@ -4520,22 +4520,22 @@
     </row>
     <row r="69" spans="1:6">
       <c r="A69">
-        <v>19330051920071</v>
+        <v>18330051920074</v>
       </c>
       <c r="B69" t="s">
         <v>76</v>
       </c>
       <c r="C69" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D69" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E69" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F69" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -4543,19 +4543,19 @@
         <v>18330051920074</v>
       </c>
       <c r="B70" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C70" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D70" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E70" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F70" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -4563,19 +4563,19 @@
         <v>18330051920074</v>
       </c>
       <c r="B71" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C71" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D71" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E71" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F71" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -4583,33 +4583,33 @@
         <v>18330051920074</v>
       </c>
       <c r="B72" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C72" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D72" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E72" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F72" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73">
-        <v>18330051920074</v>
+        <v>19330051920074</v>
       </c>
       <c r="B73" t="s">
         <v>77</v>
       </c>
       <c r="C73" t="s">
-        <v>101</v>
+        <v>63</v>
       </c>
       <c r="D73" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E73" t="s">
         <v>5</v>
@@ -4620,22 +4620,22 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74">
-        <v>18330051920074</v>
+        <v>19330051920074</v>
       </c>
       <c r="B74" t="s">
         <v>77</v>
       </c>
       <c r="C74" t="s">
-        <v>101</v>
+        <v>63</v>
       </c>
       <c r="D74" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E74" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F74" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -4643,59 +4643,59 @@
         <v>19330051920074</v>
       </c>
       <c r="B75" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C75" t="s">
         <v>63</v>
       </c>
       <c r="D75" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E75" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F75" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76">
-        <v>19330051920074</v>
+        <v>19330051920075</v>
       </c>
       <c r="B76" t="s">
         <v>78</v>
       </c>
       <c r="C76" t="s">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="D76" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E76" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F76" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77">
-        <v>19330051920074</v>
+        <v>19330051920075</v>
       </c>
       <c r="B77" t="s">
         <v>78</v>
       </c>
       <c r="C77" t="s">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="D77" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E77" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F77" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -4703,19 +4703,19 @@
         <v>19330051920075</v>
       </c>
       <c r="B78" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C78" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D78" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E78" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F78" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -4723,59 +4723,59 @@
         <v>19330051920075</v>
       </c>
       <c r="B79" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C79" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D79" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E79" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F79" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80">
-        <v>19330051920075</v>
+        <v>19330051920418</v>
       </c>
       <c r="B80" t="s">
         <v>79</v>
       </c>
       <c r="C80" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D80" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E80" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F80" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81">
-        <v>19330051920075</v>
+        <v>19330051920418</v>
       </c>
       <c r="B81" t="s">
         <v>79</v>
       </c>
       <c r="C81" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D81" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E81" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F81" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -4783,19 +4783,19 @@
         <v>19330051920418</v>
       </c>
       <c r="B82" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C82" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D82" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E82" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F82" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -4803,59 +4803,59 @@
         <v>19330051920418</v>
       </c>
       <c r="B83" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C83" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D83" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E83" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F83" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84">
-        <v>19330051920418</v>
+        <v>19330051920076</v>
       </c>
       <c r="B84" t="s">
         <v>80</v>
       </c>
       <c r="C84" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D84" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E84" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F84" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85">
-        <v>19330051920418</v>
+        <v>19330051920076</v>
       </c>
       <c r="B85" t="s">
         <v>80</v>
       </c>
       <c r="C85" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D85" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E85" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F85" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -4863,13 +4863,13 @@
         <v>19330051920076</v>
       </c>
       <c r="B86" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C86" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D86" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E86" t="s">
         <v>5</v>
@@ -4883,33 +4883,33 @@
         <v>19330051920076</v>
       </c>
       <c r="B87" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C87" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D87" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E87" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F87" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88">
-        <v>19330051920076</v>
+        <v>18330051920029</v>
       </c>
       <c r="B88" t="s">
         <v>81</v>
       </c>
       <c r="C88" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D88" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E88" t="s">
         <v>6</v>
@@ -4920,16 +4920,16 @@
     </row>
     <row r="89" spans="1:6">
       <c r="A89">
-        <v>19330051920076</v>
+        <v>18330051920029</v>
       </c>
       <c r="B89" t="s">
         <v>81</v>
       </c>
       <c r="C89" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D89" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E89" t="s">
         <v>9</v>
@@ -4943,19 +4943,19 @@
         <v>18330051920029</v>
       </c>
       <c r="B90" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C90" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D90" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E90" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F90" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -4963,19 +4963,19 @@
         <v>18330051920029</v>
       </c>
       <c r="B91" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C91" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D91" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E91" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F91" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -4983,59 +4983,59 @@
         <v>18330051920029</v>
       </c>
       <c r="B92" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C92" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D92" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E92" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F92" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93">
-        <v>18330051920029</v>
+        <v>19330051920079</v>
       </c>
       <c r="B93" t="s">
         <v>82</v>
       </c>
       <c r="C93" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D93" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E93" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F93" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94">
-        <v>18330051920029</v>
+        <v>19330051920079</v>
       </c>
       <c r="B94" t="s">
         <v>82</v>
       </c>
       <c r="C94" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D94" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E94" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F94" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -5043,19 +5043,19 @@
         <v>19330051920079</v>
       </c>
       <c r="B95" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C95" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D95" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E95" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F95" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -5063,19 +5063,19 @@
         <v>19330051920079</v>
       </c>
       <c r="B96" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C96" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D96" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E96" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F96" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -5083,13 +5083,13 @@
         <v>19330051920079</v>
       </c>
       <c r="B97" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C97" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D97" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E97" t="s">
         <v>6</v>
@@ -5100,42 +5100,42 @@
     </row>
     <row r="98" spans="1:6">
       <c r="A98">
-        <v>19330051920079</v>
+        <v>19330051920081</v>
       </c>
       <c r="B98" t="s">
         <v>83</v>
       </c>
       <c r="C98" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="D98" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E98" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F98" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99">
-        <v>19330051920079</v>
+        <v>19330051920081</v>
       </c>
       <c r="B99" t="s">
         <v>83</v>
       </c>
       <c r="C99" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="D99" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E99" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F99" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -5143,19 +5143,19 @@
         <v>19330051920081</v>
       </c>
       <c r="B100" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C100" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D100" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E100" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F100" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -5163,58 +5163,18 @@
         <v>19330051920081</v>
       </c>
       <c r="B101" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C101" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D101" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E101" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F101" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
-      <c r="A102">
-        <v>19330051920081</v>
-      </c>
-      <c r="B102" t="s">
-        <v>84</v>
-      </c>
-      <c r="C102" t="s">
-        <v>79</v>
-      </c>
-      <c r="D102" t="s">
-        <v>133</v>
-      </c>
-      <c r="E102" t="s">
-        <v>4</v>
-      </c>
-      <c r="F102" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
-      <c r="A103">
-        <v>19330051920081</v>
-      </c>
-      <c r="B103" t="s">
-        <v>84</v>
-      </c>
-      <c r="C103" t="s">
-        <v>79</v>
-      </c>
-      <c r="D103" t="s">
-        <v>133</v>
-      </c>
-      <c r="E103" t="s">
-        <v>9</v>
-      </c>
-      <c r="F103" t="s">
         <v>52</v>
       </c>
     </row>
@@ -5260,10 +5220,10 @@
         <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E2">
         <v>5</v>
@@ -5280,7 +5240,7 @@
         <v>64</v>
       </c>
       <c r="D3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E3">
         <v>5</v>
@@ -5294,10 +5254,10 @@
         <v>64</v>
       </c>
       <c r="C4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E4">
         <v>5</v>
@@ -5311,10 +5271,10 @@
         <v>65</v>
       </c>
       <c r="C5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E5">
         <v>5</v>
@@ -5325,13 +5285,13 @@
         <v>19330051920061</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -5342,13 +5302,13 @@
         <v>19330051920050</v>
       </c>
       <c r="B7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E7">
         <v>5</v>
@@ -5356,7 +5316,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>19330051920064</v>
+        <v>19330051920068</v>
       </c>
       <c r="B8" t="s">
         <v>73</v>
@@ -5365,7 +5325,7 @@
         <v>96</v>
       </c>
       <c r="D8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E8">
         <v>5</v>
@@ -5373,13 +5333,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>19330051920068</v>
+        <v>18330051920074</v>
       </c>
       <c r="B9" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D9" t="s">
         <v>123</v>
@@ -5390,16 +5350,16 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>18330051920074</v>
+        <v>18330051920029</v>
       </c>
       <c r="B10" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C10" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D10" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E10">
         <v>5</v>
@@ -5407,16 +5367,16 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>18330051920029</v>
+        <v>19330051920079</v>
       </c>
       <c r="B11" t="s">
         <v>82</v>
       </c>
       <c r="C11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E11">
         <v>5</v>
@@ -5424,33 +5384,33 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>19330051920079</v>
+        <v>19330051920045</v>
       </c>
       <c r="B12" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="C12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" t="s">
         <v>106</v>
       </c>
-      <c r="D12" t="s">
-        <v>132</v>
-      </c>
       <c r="E12">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>19330051920045</v>
+        <v>19330051920064</v>
       </c>
       <c r="B13" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="C13" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="D13" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="E13">
         <v>4</v>
@@ -5461,13 +5421,13 @@
         <v>19330051920067</v>
       </c>
       <c r="B14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C14" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D14" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E14">
         <v>4</v>
@@ -5478,13 +5438,13 @@
         <v>19330051920069</v>
       </c>
       <c r="B15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E15">
         <v>4</v>
@@ -5495,13 +5455,13 @@
         <v>19330051920075</v>
       </c>
       <c r="B16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D16" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E16">
         <v>4</v>
@@ -5512,13 +5472,13 @@
         <v>19330051920418</v>
       </c>
       <c r="B17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C17" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D17" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E17">
         <v>4</v>
@@ -5529,13 +5489,13 @@
         <v>19330051920076</v>
       </c>
       <c r="B18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C18" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D18" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E18">
         <v>4</v>
@@ -5546,13 +5506,13 @@
         <v>19330051920081</v>
       </c>
       <c r="B19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D19" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E19">
         <v>4</v>
@@ -5563,13 +5523,13 @@
         <v>19330051920055</v>
       </c>
       <c r="B20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D20" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -5580,13 +5540,13 @@
         <v>18330051920022</v>
       </c>
       <c r="B21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C21" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D21" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E21">
         <v>3</v>
@@ -5597,13 +5557,13 @@
         <v>19330051920071</v>
       </c>
       <c r="B22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C22" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D22" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E22">
         <v>3</v>
@@ -5614,13 +5574,13 @@
         <v>19330051920074</v>
       </c>
       <c r="B23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C23" t="s">
         <v>63</v>
       </c>
       <c r="D23" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E23">
         <v>3</v>
@@ -5634,10 +5594,10 @@
         <v>62</v>
       </c>
       <c r="C24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D24" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E24">
         <v>2</v>
@@ -5648,13 +5608,13 @@
         <v>19330051920060</v>
       </c>
       <c r="B25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C25" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D25" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E25">
         <v>2</v>
@@ -5662,16 +5622,16 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <v>19330051920053</v>
+        <v>19330051920057</v>
       </c>
       <c r="B26" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C26" t="s">
         <v>90</v>
       </c>
       <c r="D26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -5679,16 +5639,16 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <v>19330051920057</v>
+        <v>19330051920056</v>
       </c>
       <c r="B27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C27" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D27" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -5696,19 +5656,19 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <v>19330051920056</v>
+        <v>19330051920053</v>
       </c>
       <c r="B28" t="s">
-        <v>68</v>
+        <v>131</v>
       </c>
       <c r="C28" t="s">
-        <v>86</v>
+        <v>132</v>
       </c>
       <c r="D28" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -5716,7 +5676,7 @@
         <v>19330051920058</v>
       </c>
       <c r="B29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C29" t="s">
         <v>61</v>
@@ -5733,13 +5693,13 @@
         <v>19330051920059</v>
       </c>
       <c r="B30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D30" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -5752,7 +5712,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5793,10 +5753,10 @@
         <v>62</v>
       </c>
       <c r="C2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
@@ -5816,10 +5776,10 @@
         <v>62</v>
       </c>
       <c r="C3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -5836,13 +5796,13 @@
         <v>19330051920057</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E4" t="s">
         <v>5</v>
@@ -5859,13 +5819,13 @@
         <v>19330051920057</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E5" t="s">
         <v>6</v>
@@ -5882,13 +5842,13 @@
         <v>19330051920060</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D6" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E6" t="s">
         <v>6</v>
@@ -5905,13 +5865,13 @@
         <v>19330051920060</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
@@ -5925,47 +5885,24 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>19330051920053</v>
+        <v>19330051920056</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C8" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D8" t="s">
         <v>113</v>
       </c>
       <c r="E8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G8">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>19330051920056</v>
-      </c>
-      <c r="B9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" t="s">
-        <v>86</v>
-      </c>
-      <c r="D9" t="s">
-        <v>116</v>
-      </c>
-      <c r="E9" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9">
         <v>-1</v>
       </c>
     </row>

--- a/grupos/4AEV - Estadisticos 2020.xlsx
+++ b/grupos/4AEV - Estadisticos 2020.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="135">
   <si>
     <t>Materia</t>
   </si>
@@ -2219,7 +2219,7 @@
         <v>-1</v>
       </c>
       <c r="L23">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M23">
         <v>6</v>
@@ -3056,25 +3056,25 @@
         <v>29</v>
       </c>
       <c r="D6">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F6">
-        <v>44.83</v>
+        <v>48.28</v>
       </c>
       <c r="G6">
-        <v>17.24</v>
+        <v>13.79</v>
       </c>
       <c r="H6">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="I6">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J6">
-        <v>51.72</v>
+        <v>48.28</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -3148,7 +3148,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F101"/>
+  <dimension ref="A1:F100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4372,10 +4372,10 @@
         <v>121</v>
       </c>
       <c r="E61" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F61" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -4392,10 +4392,10 @@
         <v>121</v>
       </c>
       <c r="E62" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F62" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -4412,24 +4412,24 @@
         <v>121</v>
       </c>
       <c r="E63" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F63" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64">
-        <v>19330051920069</v>
+        <v>19330051920071</v>
       </c>
       <c r="B64" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C64" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D64" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E64" t="s">
         <v>5</v>
@@ -4452,10 +4452,10 @@
         <v>122</v>
       </c>
       <c r="E65" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F65" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -4472,24 +4472,24 @@
         <v>122</v>
       </c>
       <c r="E66" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F66" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67">
-        <v>19330051920071</v>
+        <v>18330051920074</v>
       </c>
       <c r="B67" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C67" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D67" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E67" t="s">
         <v>4</v>
@@ -4512,10 +4512,10 @@
         <v>123</v>
       </c>
       <c r="E68" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F68" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -4532,10 +4532,10 @@
         <v>123</v>
       </c>
       <c r="E69" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F69" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -4552,10 +4552,10 @@
         <v>123</v>
       </c>
       <c r="E70" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F70" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -4572,30 +4572,30 @@
         <v>123</v>
       </c>
       <c r="E71" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F71" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72">
-        <v>18330051920074</v>
+        <v>19330051920074</v>
       </c>
       <c r="B72" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C72" t="s">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="D72" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E72" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F72" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -4612,10 +4612,10 @@
         <v>124</v>
       </c>
       <c r="E73" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F73" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -4632,30 +4632,30 @@
         <v>124</v>
       </c>
       <c r="E74" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F74" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75">
-        <v>19330051920074</v>
+        <v>19330051920075</v>
       </c>
       <c r="B75" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C75" t="s">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="D75" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E75" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F75" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -4672,10 +4672,10 @@
         <v>125</v>
       </c>
       <c r="E76" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F76" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -4692,10 +4692,10 @@
         <v>125</v>
       </c>
       <c r="E77" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F77" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -4712,30 +4712,30 @@
         <v>125</v>
       </c>
       <c r="E78" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F78" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79">
-        <v>19330051920075</v>
+        <v>19330051920418</v>
       </c>
       <c r="B79" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C79" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D79" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E79" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F79" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -4752,10 +4752,10 @@
         <v>126</v>
       </c>
       <c r="E80" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F80" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -4772,10 +4772,10 @@
         <v>126</v>
       </c>
       <c r="E81" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F81" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -4792,30 +4792,30 @@
         <v>126</v>
       </c>
       <c r="E82" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F82" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83">
-        <v>19330051920418</v>
+        <v>19330051920076</v>
       </c>
       <c r="B83" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C83" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D83" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E83" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F83" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -4832,10 +4832,10 @@
         <v>127</v>
       </c>
       <c r="E84" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F84" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -4852,10 +4852,10 @@
         <v>127</v>
       </c>
       <c r="E85" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F85" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -4872,30 +4872,30 @@
         <v>127</v>
       </c>
       <c r="E86" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F86" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87">
-        <v>19330051920076</v>
+        <v>18330051920029</v>
       </c>
       <c r="B87" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C87" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D87" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E87" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F87" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -4912,10 +4912,10 @@
         <v>128</v>
       </c>
       <c r="E88" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F88" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -4932,10 +4932,10 @@
         <v>128</v>
       </c>
       <c r="E89" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F89" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -4952,10 +4952,10 @@
         <v>128</v>
       </c>
       <c r="E90" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F90" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -4972,24 +4972,24 @@
         <v>128</v>
       </c>
       <c r="E91" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F91" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92">
-        <v>18330051920029</v>
+        <v>19330051920079</v>
       </c>
       <c r="B92" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C92" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D92" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E92" t="s">
         <v>4</v>
@@ -5012,10 +5012,10 @@
         <v>129</v>
       </c>
       <c r="E93" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F93" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -5032,10 +5032,10 @@
         <v>129</v>
       </c>
       <c r="E94" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F94" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -5052,10 +5052,10 @@
         <v>129</v>
       </c>
       <c r="E95" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F95" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -5072,24 +5072,24 @@
         <v>129</v>
       </c>
       <c r="E96" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F96" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97">
-        <v>19330051920079</v>
+        <v>19330051920081</v>
       </c>
       <c r="B97" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C97" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="D97" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E97" t="s">
         <v>6</v>
@@ -5112,10 +5112,10 @@
         <v>130</v>
       </c>
       <c r="E98" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F98" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -5132,10 +5132,10 @@
         <v>130</v>
       </c>
       <c r="E99" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F99" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -5152,29 +5152,9 @@
         <v>130</v>
       </c>
       <c r="E100" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F100" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
-      <c r="A101">
-        <v>19330051920081</v>
-      </c>
-      <c r="B101" t="s">
-        <v>83</v>
-      </c>
-      <c r="C101" t="s">
-        <v>78</v>
-      </c>
-      <c r="D101" t="s">
-        <v>130</v>
-      </c>
-      <c r="E101" t="s">
-        <v>9</v>
-      </c>
-      <c r="F101" t="s">
         <v>52</v>
       </c>
     </row>
@@ -5435,16 +5415,16 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>19330051920069</v>
+        <v>19330051920075</v>
       </c>
       <c r="B15" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C15" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D15" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E15">
         <v>4</v>
@@ -5452,16 +5432,16 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>19330051920075</v>
+        <v>19330051920418</v>
       </c>
       <c r="B16" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C16" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D16" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E16">
         <v>4</v>
@@ -5469,16 +5449,16 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>19330051920418</v>
+        <v>19330051920076</v>
       </c>
       <c r="B17" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C17" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D17" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E17">
         <v>4</v>
@@ -5486,16 +5466,16 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>19330051920076</v>
+        <v>19330051920081</v>
       </c>
       <c r="B18" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C18" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="D18" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E18">
         <v>4</v>
@@ -5503,33 +5483,33 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>19330051920081</v>
+        <v>19330051920055</v>
       </c>
       <c r="B19" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="C19" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="D19" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="E19">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>19330051920055</v>
+        <v>18330051920022</v>
       </c>
       <c r="B20" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C20" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D20" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -5537,16 +5517,16 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>18330051920022</v>
+        <v>19330051920069</v>
       </c>
       <c r="B21" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C21" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="D21" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="E21">
         <v>3</v>
